--- a/Unverified multiformat sources/Exportations 1779 Nantes.xlsx
+++ b/Unverified multiformat sources/Exportations 1779 Nantes.xlsx
@@ -1279,7 +1279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1388,10 +1388,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1425,66 +1421,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1558,35 +1503,35 @@
   <dimension ref="A1:Y509"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T7" activeCellId="0" sqref="T7"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="26.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="10.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="10.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="8" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="8" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="8" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="8" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="36.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="25" style="1" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="25" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="67.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,7 +1611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1732,12 +1677,12 @@
         <f aca="false">U2-V2</f>
         <v>0</v>
       </c>
-      <c r="X2" s="27"/>
+      <c r="X2" s="14"/>
       <c r="Y2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -1805,14 +1750,14 @@
         <f aca="false">U3-V3</f>
         <v>0</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="X3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -1880,12 +1825,12 @@
         <f aca="false">U4-V4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="27"/>
+      <c r="X4" s="14"/>
       <c r="Y4" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -1951,12 +1896,12 @@
         <f aca="false">U5-V5</f>
         <v>0</v>
       </c>
-      <c r="X5" s="27"/>
+      <c r="X5" s="14"/>
       <c r="Y5" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -2022,12 +1967,12 @@
         <f aca="false">U6-V6</f>
         <v>0</v>
       </c>
-      <c r="X6" s="27"/>
+      <c r="X6" s="14"/>
       <c r="Y6" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -2095,12 +2040,12 @@
         <f aca="false">U7-V7</f>
         <v>0</v>
       </c>
-      <c r="X7" s="27"/>
+      <c r="X7" s="14"/>
       <c r="Y7" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -2166,14 +2111,14 @@
         <f aca="false">U8-V8</f>
         <v>0</v>
       </c>
-      <c r="X8" s="27" t="s">
+      <c r="X8" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -2239,12 +2184,12 @@
         <f aca="false">U9-V9</f>
         <v>0</v>
       </c>
-      <c r="X9" s="27"/>
+      <c r="X9" s="14"/>
       <c r="Y9" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -2293,7 +2238,7 @@
         <f aca="false">N10+(0.05*O10)+(P10/240)</f>
         <v>12</v>
       </c>
-      <c r="R10" s="28" t="n">
+      <c r="R10" s="27" t="n">
         <v>89160</v>
       </c>
       <c r="S10" s="25"/>
@@ -2310,14 +2255,14 @@
         <f aca="false">U10-V10</f>
         <v>0</v>
       </c>
-      <c r="X10" s="29" t="s">
+      <c r="X10" s="28" t="s">
         <v>46</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -2385,12 +2330,12 @@
         <f aca="false">U11-V11</f>
         <v>0</v>
       </c>
-      <c r="X11" s="27"/>
+      <c r="X11" s="14"/>
       <c r="Y11" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -2458,12 +2403,12 @@
         <f aca="false">U12-V12</f>
         <v>0</v>
       </c>
-      <c r="X12" s="27"/>
+      <c r="X12" s="14"/>
       <c r="Y12" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -2531,9 +2476,9 @@
         <f aca="false">U13-V13</f>
         <v>0</v>
       </c>
-      <c r="X13" s="27"/>
+      <c r="X13" s="14"/>
       <c r="Y13" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,12 +2534,12 @@
         <v>250</v>
       </c>
       <c r="W14" s="26"/>
-      <c r="X14" s="27"/>
+      <c r="X14" s="14"/>
       <c r="Y14" s="1" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -2664,12 +2609,12 @@
         <f aca="false">U15-V15</f>
         <v>0</v>
       </c>
-      <c r="X15" s="27"/>
+      <c r="X15" s="14"/>
       <c r="Y15" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -2735,12 +2680,12 @@
         <f aca="false">U16-V16</f>
         <v>0</v>
       </c>
-      <c r="X16" s="27"/>
+      <c r="X16" s="14"/>
       <c r="Y16" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -2808,14 +2753,14 @@
         <f aca="false">U17-V17</f>
         <v>-0.00999999999999801</v>
       </c>
-      <c r="X17" s="27" t="s">
+      <c r="X17" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -2881,12 +2826,12 @@
         <f aca="false">U18-V18</f>
         <v>0</v>
       </c>
-      <c r="X18" s="27"/>
+      <c r="X18" s="14"/>
       <c r="Y18" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -2954,12 +2899,12 @@
         <f aca="false">U19-V19</f>
         <v>0</v>
       </c>
-      <c r="X19" s="27"/>
+      <c r="X19" s="14"/>
       <c r="Y19" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -3025,12 +2970,12 @@
         <f aca="false">U20-V20</f>
         <v>0</v>
       </c>
-      <c r="X20" s="27"/>
+      <c r="X20" s="14"/>
       <c r="Y20" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -3098,14 +3043,14 @@
         <f aca="false">U21-V21</f>
         <v>0</v>
       </c>
-      <c r="X21" s="27" t="s">
+      <c r="X21" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -3154,10 +3099,10 @@
         <f aca="false">N22+(0.05*O22)+(P22/240)</f>
         <v>0.75</v>
       </c>
-      <c r="R22" s="28" t="n">
+      <c r="R22" s="27" t="n">
         <v>258</v>
       </c>
-      <c r="S22" s="28"/>
+      <c r="S22" s="27"/>
       <c r="T22" s="25"/>
       <c r="U22" s="25" t="n">
         <f aca="false">Q22*L22</f>
@@ -3171,14 +3116,14 @@
         <f aca="false">U22-V22</f>
         <v>0</v>
       </c>
-      <c r="X22" s="29" t="s">
+      <c r="X22" s="28" t="s">
         <v>36</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -3246,14 +3191,14 @@
         <f aca="false">U23-V23</f>
         <v>0</v>
       </c>
-      <c r="X23" s="27" t="s">
+      <c r="X23" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -3319,12 +3264,12 @@
         <f aca="false">U24-V24</f>
         <v>0</v>
       </c>
-      <c r="X24" s="27"/>
+      <c r="X24" s="14"/>
       <c r="Y24" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -3392,14 +3337,14 @@
         <f aca="false">U25-V25</f>
         <v>0</v>
       </c>
-      <c r="X25" s="27" t="s">
+      <c r="X25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -3467,14 +3412,14 @@
         <f aca="false">U26-V26</f>
         <v>-0.0099999999802094</v>
       </c>
-      <c r="X26" s="27" t="s">
+      <c r="X26" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -3542,14 +3487,14 @@
         <f aca="false">U27-V27</f>
         <v>0</v>
       </c>
-      <c r="X27" s="27" t="s">
+      <c r="X27" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -3617,14 +3562,14 @@
         <f aca="false">U28-V28</f>
         <v>0</v>
       </c>
-      <c r="X28" s="27" t="s">
+      <c r="X28" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -3692,12 +3637,12 @@
         <f aca="false">U29-V29</f>
         <v>0</v>
       </c>
-      <c r="X29" s="27"/>
+      <c r="X29" s="14"/>
       <c r="Y29" s="1" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -3765,12 +3710,12 @@
         <f aca="false">U30-V30</f>
         <v>50.0000000000018</v>
       </c>
-      <c r="X30" s="27"/>
+      <c r="X30" s="14"/>
       <c r="Y30" s="1" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -3836,12 +3781,12 @@
         <f aca="false">U31-V31</f>
         <v>0</v>
       </c>
-      <c r="X31" s="27"/>
+      <c r="X31" s="14"/>
       <c r="Y31" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -3907,12 +3852,12 @@
         <f aca="false">U32-V32</f>
         <v>0</v>
       </c>
-      <c r="X32" s="27"/>
+      <c r="X32" s="14"/>
       <c r="Y32" s="1" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -3978,12 +3923,12 @@
         <f aca="false">U33-V33</f>
         <v>0</v>
       </c>
-      <c r="X33" s="27"/>
+      <c r="X33" s="14"/>
       <c r="Y33" s="1" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -4049,12 +3994,12 @@
         <f aca="false">U34-V34</f>
         <v>0</v>
       </c>
-      <c r="X34" s="27"/>
+      <c r="X34" s="14"/>
       <c r="Y34" s="1" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -4120,12 +4065,12 @@
         <f aca="false">U35-V35</f>
         <v>0</v>
       </c>
-      <c r="X35" s="27"/>
+      <c r="X35" s="14"/>
       <c r="Y35" s="1" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -4191,12 +4136,12 @@
         <f aca="false">U36-V36</f>
         <v>-15483.1</v>
       </c>
-      <c r="X36" s="27"/>
+      <c r="X36" s="14"/>
       <c r="Y36" s="1" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -4264,12 +4209,12 @@
         <f aca="false">U37-V37</f>
         <v>0</v>
       </c>
-      <c r="X37" s="27"/>
+      <c r="X37" s="14"/>
       <c r="Y37" s="1" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -4335,12 +4280,12 @@
         <f aca="false">U38-V38</f>
         <v>0</v>
       </c>
-      <c r="X38" s="27"/>
+      <c r="X38" s="14"/>
       <c r="Y38" s="1" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -4406,12 +4351,12 @@
         <f aca="false">U39-V39</f>
         <v>-5557.5</v>
       </c>
-      <c r="X39" s="27"/>
+      <c r="X39" s="14"/>
       <c r="Y39" s="1" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -4477,12 +4422,12 @@
         <f aca="false">U40-V40</f>
         <v>0</v>
       </c>
-      <c r="X40" s="27"/>
+      <c r="X40" s="14"/>
       <c r="Y40" s="1" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -4548,12 +4493,12 @@
         <f aca="false">U41-V41</f>
         <v>0</v>
       </c>
-      <c r="X41" s="27"/>
+      <c r="X41" s="14"/>
       <c r="Y41" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -4623,9 +4568,9 @@
         <f aca="false">U42-V42</f>
         <v>0</v>
       </c>
-      <c r="X42" s="27"/>
+      <c r="X42" s="14"/>
       <c r="Y42" s="1" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4681,12 +4626,12 @@
         <v>210</v>
       </c>
       <c r="W43" s="26"/>
-      <c r="X43" s="27"/>
+      <c r="X43" s="14"/>
       <c r="Y43" s="1" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -4752,12 +4697,12 @@
         <f aca="false">U44-V44</f>
         <v>0</v>
       </c>
-      <c r="X44" s="27"/>
+      <c r="X44" s="14"/>
       <c r="Y44" s="1" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -4823,12 +4768,12 @@
         <f aca="false">U45-V45</f>
         <v>5</v>
       </c>
-      <c r="X45" s="27"/>
+      <c r="X45" s="14"/>
       <c r="Y45" s="1" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -4894,12 +4839,12 @@
         <f aca="false">U46-V46</f>
         <v>0</v>
       </c>
-      <c r="X46" s="27"/>
+      <c r="X46" s="14"/>
       <c r="Y46" s="1" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -4967,14 +4912,14 @@
         <f aca="false">U47-V47</f>
         <v>0</v>
       </c>
-      <c r="X47" s="27" t="s">
+      <c r="X47" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -5040,12 +4985,12 @@
         <f aca="false">U48-V48</f>
         <v>0</v>
       </c>
-      <c r="X48" s="27"/>
+      <c r="X48" s="14"/>
       <c r="Y48" s="1" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -5111,12 +5056,12 @@
         <f aca="false">U49-V49</f>
         <v>0</v>
       </c>
-      <c r="X49" s="27"/>
+      <c r="X49" s="14"/>
       <c r="Y49" s="1" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -5182,9 +5127,9 @@
         <f aca="false">U50-V50</f>
         <v>0</v>
       </c>
-      <c r="X50" s="27"/>
+      <c r="X50" s="14"/>
       <c r="Y50" s="1" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,9 +5190,9 @@
       </c>
       <c r="V51" s="26"/>
       <c r="W51" s="26"/>
-      <c r="X51" s="27"/>
+      <c r="X51" s="14"/>
       <c r="Y51" s="1" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5308,9 +5253,9 @@
       </c>
       <c r="V52" s="26"/>
       <c r="W52" s="26"/>
-      <c r="X52" s="27"/>
+      <c r="X52" s="14"/>
       <c r="Y52" s="1" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,9 +5316,9 @@
       </c>
       <c r="V53" s="26"/>
       <c r="W53" s="26"/>
-      <c r="X53" s="27"/>
+      <c r="X53" s="14"/>
       <c r="Y53" s="1" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5434,11 +5379,11 @@
       </c>
       <c r="V54" s="26"/>
       <c r="W54" s="26"/>
-      <c r="X54" s="27" t="s">
+      <c r="X54" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,9 +5444,9 @@
       </c>
       <c r="V55" s="26"/>
       <c r="W55" s="26"/>
-      <c r="X55" s="27"/>
+      <c r="X55" s="14"/>
       <c r="Y55" s="1" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,9 +5507,9 @@
       </c>
       <c r="V56" s="26"/>
       <c r="W56" s="26"/>
-      <c r="X56" s="27"/>
+      <c r="X56" s="14"/>
       <c r="Y56" s="1" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,9 +5570,9 @@
       </c>
       <c r="V57" s="26"/>
       <c r="W57" s="26"/>
-      <c r="X57" s="27"/>
+      <c r="X57" s="14"/>
       <c r="Y57" s="1" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,9 +5633,9 @@
       </c>
       <c r="V58" s="26"/>
       <c r="W58" s="26"/>
-      <c r="X58" s="27"/>
+      <c r="X58" s="14"/>
       <c r="Y58" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,9 +5696,9 @@
       </c>
       <c r="V59" s="26"/>
       <c r="W59" s="26"/>
-      <c r="X59" s="27"/>
+      <c r="X59" s="14"/>
       <c r="Y59" s="1" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,9 +5759,9 @@
       </c>
       <c r="V60" s="26"/>
       <c r="W60" s="26"/>
-      <c r="X60" s="27"/>
+      <c r="X60" s="14"/>
       <c r="Y60" s="1" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,9 +5822,9 @@
       </c>
       <c r="V61" s="26"/>
       <c r="W61" s="26"/>
-      <c r="X61" s="27"/>
+      <c r="X61" s="14"/>
       <c r="Y61" s="1" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,9 +5885,9 @@
       </c>
       <c r="V62" s="26"/>
       <c r="W62" s="26"/>
-      <c r="X62" s="27"/>
+      <c r="X62" s="14"/>
       <c r="Y62" s="1" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6003,11 +5948,11 @@
       </c>
       <c r="V63" s="26"/>
       <c r="W63" s="26"/>
-      <c r="X63" s="27" t="s">
+      <c r="X63" s="14" t="s">
         <v>96</v>
       </c>
       <c r="Y63" s="1" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6068,9 +6013,9 @@
       </c>
       <c r="V64" s="26"/>
       <c r="W64" s="26"/>
-      <c r="X64" s="27"/>
+      <c r="X64" s="14"/>
       <c r="Y64" s="1" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,11 +6076,11 @@
       </c>
       <c r="V65" s="26"/>
       <c r="W65" s="26"/>
-      <c r="X65" s="27" t="s">
+      <c r="X65" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y65" s="1" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6178,7 +6123,7 @@
       <c r="M66" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="30" t="n">
+      <c r="N66" s="29" t="n">
         <v>4</v>
       </c>
       <c r="O66" s="22"/>
@@ -6196,9 +6141,9 @@
       </c>
       <c r="V66" s="26"/>
       <c r="W66" s="26"/>
-      <c r="X66" s="27"/>
+      <c r="X66" s="14"/>
       <c r="Y66" s="1" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6241,7 +6186,7 @@
       <c r="M67" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N67" s="30" t="n">
+      <c r="N67" s="29" t="n">
         <v>175</v>
       </c>
       <c r="O67" s="22"/>
@@ -6256,11 +6201,11 @@
       </c>
       <c r="V67" s="26"/>
       <c r="W67" s="26"/>
-      <c r="X67" s="29" t="s">
+      <c r="X67" s="28" t="s">
         <v>101</v>
       </c>
       <c r="Y67" s="1" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,9 +6266,9 @@
       </c>
       <c r="V68" s="26"/>
       <c r="W68" s="26"/>
-      <c r="X68" s="27"/>
+      <c r="X68" s="14"/>
       <c r="Y68" s="1" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6384,9 +6329,9 @@
       </c>
       <c r="V69" s="26"/>
       <c r="W69" s="26"/>
-      <c r="X69" s="27"/>
+      <c r="X69" s="14"/>
       <c r="Y69" s="1" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,9 +6392,9 @@
       </c>
       <c r="V70" s="26"/>
       <c r="W70" s="26"/>
-      <c r="X70" s="27"/>
+      <c r="X70" s="14"/>
       <c r="Y70" s="1" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6510,9 +6455,9 @@
       </c>
       <c r="V71" s="26"/>
       <c r="W71" s="26"/>
-      <c r="X71" s="27"/>
+      <c r="X71" s="14"/>
       <c r="Y71" s="1" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6573,11 +6518,11 @@
       </c>
       <c r="V72" s="26"/>
       <c r="W72" s="26"/>
-      <c r="X72" s="27" t="s">
+      <c r="X72" s="14" t="s">
         <v>106</v>
       </c>
       <c r="Y72" s="1" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6638,9 +6583,9 @@
       </c>
       <c r="V73" s="26"/>
       <c r="W73" s="26"/>
-      <c r="X73" s="27"/>
+      <c r="X73" s="14"/>
       <c r="Y73" s="1" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,9 +6641,9 @@
         <v>1874</v>
       </c>
       <c r="W74" s="26"/>
-      <c r="X74" s="27"/>
+      <c r="X74" s="14"/>
       <c r="Y74" s="1" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,9 +6704,9 @@
       </c>
       <c r="V75" s="26"/>
       <c r="W75" s="26"/>
-      <c r="X75" s="27"/>
+      <c r="X75" s="14"/>
       <c r="Y75" s="1" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,9 +6767,9 @@
       </c>
       <c r="V76" s="26"/>
       <c r="W76" s="26"/>
-      <c r="X76" s="27"/>
+      <c r="X76" s="14"/>
       <c r="Y76" s="1" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,9 +6830,9 @@
       </c>
       <c r="V77" s="26"/>
       <c r="W77" s="26"/>
-      <c r="X77" s="27"/>
+      <c r="X77" s="14"/>
       <c r="Y77" s="1" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6948,9 +6893,9 @@
       </c>
       <c r="V78" s="26"/>
       <c r="W78" s="26"/>
-      <c r="X78" s="27"/>
+      <c r="X78" s="14"/>
       <c r="Y78" s="1" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7011,9 +6956,9 @@
       </c>
       <c r="V79" s="26"/>
       <c r="W79" s="26"/>
-      <c r="X79" s="27"/>
+      <c r="X79" s="14"/>
       <c r="Y79" s="1" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7074,9 +7019,9 @@
       </c>
       <c r="V80" s="26"/>
       <c r="W80" s="26"/>
-      <c r="X80" s="27"/>
+      <c r="X80" s="14"/>
       <c r="Y80" s="1" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7137,9 +7082,9 @@
       </c>
       <c r="V81" s="26"/>
       <c r="W81" s="26"/>
-      <c r="X81" s="27"/>
+      <c r="X81" s="14"/>
       <c r="Y81" s="1" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,11 +7145,11 @@
       </c>
       <c r="V82" s="26"/>
       <c r="W82" s="26"/>
-      <c r="X82" s="27" t="s">
+      <c r="X82" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,9 +7210,9 @@
       </c>
       <c r="V83" s="26"/>
       <c r="W83" s="26"/>
-      <c r="X83" s="27"/>
+      <c r="X83" s="14"/>
       <c r="Y83" s="1" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,9 +7273,9 @@
       </c>
       <c r="V84" s="26"/>
       <c r="W84" s="26"/>
-      <c r="X84" s="27"/>
+      <c r="X84" s="14"/>
       <c r="Y84" s="1" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,9 +7336,9 @@
       </c>
       <c r="V85" s="26"/>
       <c r="W85" s="26"/>
-      <c r="X85" s="27"/>
+      <c r="X85" s="14"/>
       <c r="Y85" s="1" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7454,9 +7399,9 @@
       </c>
       <c r="V86" s="26"/>
       <c r="W86" s="26"/>
-      <c r="X86" s="27"/>
+      <c r="X86" s="14"/>
       <c r="Y86" s="1" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,9 +7462,9 @@
       </c>
       <c r="V87" s="26"/>
       <c r="W87" s="26"/>
-      <c r="X87" s="27"/>
+      <c r="X87" s="14"/>
       <c r="Y87" s="1" t="n">
-        <v>86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7580,9 +7525,9 @@
       </c>
       <c r="V88" s="26"/>
       <c r="W88" s="26"/>
-      <c r="X88" s="27"/>
+      <c r="X88" s="14"/>
       <c r="Y88" s="1" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7643,9 +7588,9 @@
       </c>
       <c r="V89" s="26"/>
       <c r="W89" s="26"/>
-      <c r="X89" s="27"/>
+      <c r="X89" s="14"/>
       <c r="Y89" s="1" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7706,9 +7651,9 @@
       </c>
       <c r="V90" s="26"/>
       <c r="W90" s="26"/>
-      <c r="X90" s="27"/>
+      <c r="X90" s="14"/>
       <c r="Y90" s="1" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,9 +7714,9 @@
       </c>
       <c r="V91" s="26"/>
       <c r="W91" s="26"/>
-      <c r="X91" s="27"/>
+      <c r="X91" s="14"/>
       <c r="Y91" s="1" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,9 +7779,9 @@
       </c>
       <c r="V92" s="26"/>
       <c r="W92" s="26"/>
-      <c r="X92" s="27"/>
+      <c r="X92" s="14"/>
       <c r="Y92" s="1" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7897,9 +7842,9 @@
       </c>
       <c r="V93" s="26"/>
       <c r="W93" s="26"/>
-      <c r="X93" s="27"/>
+      <c r="X93" s="14"/>
       <c r="Y93" s="1" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7960,9 +7905,9 @@
       </c>
       <c r="V94" s="26"/>
       <c r="W94" s="26"/>
-      <c r="X94" s="27"/>
+      <c r="X94" s="14"/>
       <c r="Y94" s="1" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8023,9 +7968,9 @@
       </c>
       <c r="V95" s="26"/>
       <c r="W95" s="26"/>
-      <c r="X95" s="27"/>
+      <c r="X95" s="14"/>
       <c r="Y95" s="1" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8088,9 +8033,9 @@
       </c>
       <c r="V96" s="26"/>
       <c r="W96" s="26"/>
-      <c r="X96" s="27"/>
+      <c r="X96" s="14"/>
       <c r="Y96" s="1" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8151,9 +8096,9 @@
       </c>
       <c r="V97" s="26"/>
       <c r="W97" s="26"/>
-      <c r="X97" s="27"/>
+      <c r="X97" s="14"/>
       <c r="Y97" s="1" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8214,9 +8159,9 @@
       </c>
       <c r="V98" s="26"/>
       <c r="W98" s="26"/>
-      <c r="X98" s="27"/>
+      <c r="X98" s="14"/>
       <c r="Y98" s="1" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,9 +8222,9 @@
       </c>
       <c r="V99" s="26"/>
       <c r="W99" s="26"/>
-      <c r="X99" s="27"/>
+      <c r="X99" s="14"/>
       <c r="Y99" s="1" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8340,9 +8285,9 @@
       </c>
       <c r="V100" s="26"/>
       <c r="W100" s="26"/>
-      <c r="X100" s="27"/>
+      <c r="X100" s="14"/>
       <c r="Y100" s="1" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,9 +8348,9 @@
       </c>
       <c r="V101" s="26"/>
       <c r="W101" s="26"/>
-      <c r="X101" s="27"/>
+      <c r="X101" s="14"/>
       <c r="Y101" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,9 +8411,9 @@
       </c>
       <c r="V102" s="26"/>
       <c r="W102" s="26"/>
-      <c r="X102" s="27"/>
+      <c r="X102" s="14"/>
       <c r="Y102" s="1" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8529,9 +8474,9 @@
       </c>
       <c r="V103" s="26"/>
       <c r="W103" s="26"/>
-      <c r="X103" s="27"/>
+      <c r="X103" s="14"/>
       <c r="Y103" s="1" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8594,9 +8539,9 @@
       </c>
       <c r="V104" s="26"/>
       <c r="W104" s="26"/>
-      <c r="X104" s="27"/>
+      <c r="X104" s="14"/>
       <c r="Y104" s="1" t="n">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8639,7 +8584,7 @@
       <c r="M105" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="N105" s="30" t="n">
+      <c r="N105" s="29" t="n">
         <v>18</v>
       </c>
       <c r="O105" s="22"/>
@@ -8657,9 +8602,9 @@
       </c>
       <c r="V105" s="26"/>
       <c r="W105" s="26"/>
-      <c r="X105" s="27"/>
+      <c r="X105" s="14"/>
       <c r="Y105" s="1" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8720,9 +8665,9 @@
       </c>
       <c r="V106" s="26"/>
       <c r="W106" s="26"/>
-      <c r="X106" s="27"/>
+      <c r="X106" s="14"/>
       <c r="Y106" s="1" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8783,9 +8728,9 @@
       </c>
       <c r="V107" s="26"/>
       <c r="W107" s="26"/>
-      <c r="X107" s="27"/>
+      <c r="X107" s="14"/>
       <c r="Y107" s="1" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8838,9 +8783,9 @@
       <c r="U108" s="25"/>
       <c r="V108" s="26"/>
       <c r="W108" s="26"/>
-      <c r="X108" s="27"/>
+      <c r="X108" s="14"/>
       <c r="Y108" s="1" t="n">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8901,11 +8846,11 @@
       </c>
       <c r="V109" s="26"/>
       <c r="W109" s="26"/>
-      <c r="X109" s="27" t="s">
+      <c r="X109" s="14" t="s">
         <v>136</v>
       </c>
       <c r="Y109" s="1" t="n">
-        <v>108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8966,9 +8911,9 @@
       </c>
       <c r="V110" s="26"/>
       <c r="W110" s="26"/>
-      <c r="X110" s="27"/>
+      <c r="X110" s="14"/>
       <c r="Y110" s="1" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9029,11 +8974,11 @@
       </c>
       <c r="V111" s="26"/>
       <c r="W111" s="26"/>
-      <c r="X111" s="27" t="s">
+      <c r="X111" s="14" t="s">
         <v>139</v>
       </c>
       <c r="Y111" s="1" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9094,9 +9039,9 @@
       </c>
       <c r="V112" s="26"/>
       <c r="W112" s="26"/>
-      <c r="X112" s="27"/>
+      <c r="X112" s="14"/>
       <c r="Y112" s="1" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,9 +9102,9 @@
       </c>
       <c r="V113" s="26"/>
       <c r="W113" s="26"/>
-      <c r="X113" s="27"/>
+      <c r="X113" s="14"/>
       <c r="Y113" s="1" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9220,9 +9165,9 @@
       </c>
       <c r="V114" s="26"/>
       <c r="W114" s="26"/>
-      <c r="X114" s="27"/>
+      <c r="X114" s="14"/>
       <c r="Y114" s="1" t="n">
-        <v>113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9283,9 +9228,9 @@
       </c>
       <c r="V115" s="26"/>
       <c r="W115" s="26"/>
-      <c r="X115" s="27"/>
+      <c r="X115" s="14"/>
       <c r="Y115" s="1" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9346,9 +9291,9 @@
       </c>
       <c r="V116" s="26"/>
       <c r="W116" s="26"/>
-      <c r="X116" s="27"/>
+      <c r="X116" s="14"/>
       <c r="Y116" s="1" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9409,9 +9354,9 @@
       </c>
       <c r="V117" s="26"/>
       <c r="W117" s="26"/>
-      <c r="X117" s="27"/>
+      <c r="X117" s="14"/>
       <c r="Y117" s="1" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9472,9 +9417,9 @@
       </c>
       <c r="V118" s="26"/>
       <c r="W118" s="26"/>
-      <c r="X118" s="27"/>
+      <c r="X118" s="14"/>
       <c r="Y118" s="1" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9535,9 +9480,9 @@
       </c>
       <c r="V119" s="26"/>
       <c r="W119" s="26"/>
-      <c r="X119" s="27"/>
+      <c r="X119" s="14"/>
       <c r="Y119" s="1" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9598,9 +9543,9 @@
       </c>
       <c r="V120" s="26"/>
       <c r="W120" s="26"/>
-      <c r="X120" s="27"/>
+      <c r="X120" s="14"/>
       <c r="Y120" s="1" t="n">
-        <v>119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9661,9 +9606,9 @@
       </c>
       <c r="V121" s="26"/>
       <c r="W121" s="26"/>
-      <c r="X121" s="27"/>
+      <c r="X121" s="14"/>
       <c r="Y121" s="1" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9724,9 +9669,9 @@
       </c>
       <c r="V122" s="26"/>
       <c r="W122" s="26"/>
-      <c r="X122" s="27"/>
+      <c r="X122" s="14"/>
       <c r="Y122" s="1" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,9 +9732,9 @@
       </c>
       <c r="V123" s="26"/>
       <c r="W123" s="26"/>
-      <c r="X123" s="27"/>
+      <c r="X123" s="14"/>
       <c r="Y123" s="1" t="n">
-        <v>122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9850,9 +9795,9 @@
       </c>
       <c r="V124" s="26"/>
       <c r="W124" s="26"/>
-      <c r="X124" s="27"/>
+      <c r="X124" s="14"/>
       <c r="Y124" s="1" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9913,9 +9858,9 @@
       </c>
       <c r="V125" s="26"/>
       <c r="W125" s="26"/>
-      <c r="X125" s="27"/>
+      <c r="X125" s="14"/>
       <c r="Y125" s="1" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9976,9 +9921,9 @@
       </c>
       <c r="V126" s="26"/>
       <c r="W126" s="26"/>
-      <c r="X126" s="27"/>
+      <c r="X126" s="14"/>
       <c r="Y126" s="1" t="n">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10039,9 +9984,9 @@
       </c>
       <c r="V127" s="26"/>
       <c r="W127" s="26"/>
-      <c r="X127" s="27"/>
+      <c r="X127" s="14"/>
       <c r="Y127" s="1" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10102,11 +10047,11 @@
       </c>
       <c r="V128" s="26"/>
       <c r="W128" s="26"/>
-      <c r="X128" s="27" t="s">
+      <c r="X128" s="14" t="s">
         <v>153</v>
       </c>
       <c r="Y128" s="1" t="n">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10167,9 +10112,9 @@
       </c>
       <c r="V129" s="26"/>
       <c r="W129" s="26"/>
-      <c r="X129" s="27"/>
+      <c r="X129" s="14"/>
       <c r="Y129" s="1" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10230,9 +10175,9 @@
       </c>
       <c r="V130" s="26"/>
       <c r="W130" s="26"/>
-      <c r="X130" s="27"/>
+      <c r="X130" s="14"/>
       <c r="Y130" s="1" t="n">
-        <v>129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10293,9 +10238,9 @@
       </c>
       <c r="V131" s="26"/>
       <c r="W131" s="26"/>
-      <c r="X131" s="27"/>
+      <c r="X131" s="14"/>
       <c r="Y131" s="1" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10356,9 +10301,9 @@
       </c>
       <c r="V132" s="26"/>
       <c r="W132" s="26"/>
-      <c r="X132" s="27"/>
+      <c r="X132" s="14"/>
       <c r="Y132" s="1" t="n">
-        <v>131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10419,9 +10364,9 @@
       </c>
       <c r="V133" s="26"/>
       <c r="W133" s="26"/>
-      <c r="X133" s="27"/>
+      <c r="X133" s="14"/>
       <c r="Y133" s="1" t="n">
-        <v>132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10482,9 +10427,9 @@
       </c>
       <c r="V134" s="26"/>
       <c r="W134" s="26"/>
-      <c r="X134" s="27"/>
+      <c r="X134" s="14"/>
       <c r="Y134" s="1" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10545,9 +10490,9 @@
       </c>
       <c r="V135" s="26"/>
       <c r="W135" s="26"/>
-      <c r="X135" s="27"/>
+      <c r="X135" s="14"/>
       <c r="Y135" s="1" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10608,9 +10553,9 @@
       </c>
       <c r="V136" s="26"/>
       <c r="W136" s="26"/>
-      <c r="X136" s="27"/>
+      <c r="X136" s="14"/>
       <c r="Y136" s="1" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10671,9 +10616,9 @@
       </c>
       <c r="V137" s="26"/>
       <c r="W137" s="26"/>
-      <c r="X137" s="27"/>
+      <c r="X137" s="14"/>
       <c r="Y137" s="1" t="n">
-        <v>136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10734,9 +10679,9 @@
       </c>
       <c r="V138" s="26"/>
       <c r="W138" s="26"/>
-      <c r="X138" s="27"/>
+      <c r="X138" s="14"/>
       <c r="Y138" s="1" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10797,9 +10742,9 @@
       </c>
       <c r="V139" s="26"/>
       <c r="W139" s="26"/>
-      <c r="X139" s="27"/>
+      <c r="X139" s="14"/>
       <c r="Y139" s="1" t="n">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10855,9 +10800,9 @@
         <v>290</v>
       </c>
       <c r="W140" s="26"/>
-      <c r="X140" s="27"/>
+      <c r="X140" s="14"/>
       <c r="Y140" s="1" t="n">
-        <v>139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10913,9 +10858,9 @@
         <v>1200</v>
       </c>
       <c r="W141" s="26"/>
-      <c r="X141" s="27"/>
+      <c r="X141" s="14"/>
       <c r="Y141" s="1" t="n">
-        <v>140</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10976,9 +10921,9 @@
       </c>
       <c r="V142" s="26"/>
       <c r="W142" s="26"/>
-      <c r="X142" s="27"/>
+      <c r="X142" s="14"/>
       <c r="Y142" s="1" t="n">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11039,9 +10984,9 @@
       </c>
       <c r="V143" s="26"/>
       <c r="W143" s="26"/>
-      <c r="X143" s="27"/>
+      <c r="X143" s="14"/>
       <c r="Y143" s="1" t="n">
-        <v>142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11097,9 +11042,9 @@
         <v>2595</v>
       </c>
       <c r="W144" s="26"/>
-      <c r="X144" s="27"/>
+      <c r="X144" s="14"/>
       <c r="Y144" s="1" t="n">
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11155,9 +11100,9 @@
         <v>1926</v>
       </c>
       <c r="W145" s="26"/>
-      <c r="X145" s="27"/>
+      <c r="X145" s="14"/>
       <c r="Y145" s="1" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11218,9 +11163,9 @@
       </c>
       <c r="V146" s="26"/>
       <c r="W146" s="26"/>
-      <c r="X146" s="27"/>
+      <c r="X146" s="14"/>
       <c r="Y146" s="1" t="n">
-        <v>145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11260,14 +11205,14 @@
       <c r="L147" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="M147" s="31" t="s">
+      <c r="M147" s="30" t="s">
         <v>167</v>
       </c>
       <c r="N147" s="22"/>
       <c r="O147" s="22"/>
       <c r="P147" s="23"/>
       <c r="Q147" s="24"/>
-      <c r="R147" s="28" t="n">
+      <c r="R147" s="27" t="n">
         <v>9399</v>
       </c>
       <c r="S147" s="25"/>
@@ -11278,9 +11223,9 @@
         <v>9399</v>
       </c>
       <c r="W147" s="26"/>
-      <c r="X147" s="27"/>
+      <c r="X147" s="14"/>
       <c r="Y147" s="1" t="n">
-        <v>146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11341,9 +11286,9 @@
       </c>
       <c r="V148" s="26"/>
       <c r="W148" s="26"/>
-      <c r="X148" s="27"/>
+      <c r="X148" s="14"/>
       <c r="Y148" s="1" t="n">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11404,9 +11349,9 @@
       </c>
       <c r="V149" s="26"/>
       <c r="W149" s="26"/>
-      <c r="X149" s="27"/>
+      <c r="X149" s="14"/>
       <c r="Y149" s="1" t="n">
-        <v>148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11467,9 +11412,9 @@
       </c>
       <c r="V150" s="26"/>
       <c r="W150" s="26"/>
-      <c r="X150" s="27"/>
+      <c r="X150" s="14"/>
       <c r="Y150" s="1" t="n">
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11522,9 +11467,9 @@
       <c r="U151" s="25"/>
       <c r="V151" s="26"/>
       <c r="W151" s="26"/>
-      <c r="X151" s="27"/>
+      <c r="X151" s="14"/>
       <c r="Y151" s="1" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11585,9 +11530,9 @@
       </c>
       <c r="V152" s="26"/>
       <c r="W152" s="26"/>
-      <c r="X152" s="27"/>
+      <c r="X152" s="14"/>
       <c r="Y152" s="1" t="n">
-        <v>151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11648,9 +11593,9 @@
       </c>
       <c r="V153" s="26"/>
       <c r="W153" s="26"/>
-      <c r="X153" s="27"/>
+      <c r="X153" s="14"/>
       <c r="Y153" s="1" t="n">
-        <v>152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11711,9 +11656,9 @@
       </c>
       <c r="V154" s="26"/>
       <c r="W154" s="26"/>
-      <c r="X154" s="27"/>
+      <c r="X154" s="14"/>
       <c r="Y154" s="1" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11771,11 +11716,11 @@
         <v>1000</v>
       </c>
       <c r="W155" s="26"/>
-      <c r="X155" s="27" t="s">
+      <c r="X155" s="14" t="s">
         <v>174</v>
       </c>
       <c r="Y155" s="1" t="n">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11836,9 +11781,9 @@
       </c>
       <c r="V156" s="26"/>
       <c r="W156" s="26"/>
-      <c r="X156" s="27"/>
+      <c r="X156" s="14"/>
       <c r="Y156" s="1" t="n">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11899,9 +11844,9 @@
       </c>
       <c r="V157" s="26"/>
       <c r="W157" s="26"/>
-      <c r="X157" s="27"/>
+      <c r="X157" s="14"/>
       <c r="Y157" s="1" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11962,9 +11907,9 @@
       </c>
       <c r="V158" s="26"/>
       <c r="W158" s="26"/>
-      <c r="X158" s="27"/>
+      <c r="X158" s="14"/>
       <c r="Y158" s="1" t="n">
-        <v>157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12025,9 +11970,9 @@
       </c>
       <c r="V159" s="26"/>
       <c r="W159" s="26"/>
-      <c r="X159" s="27"/>
+      <c r="X159" s="14"/>
       <c r="Y159" s="1" t="n">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12088,9 +12033,9 @@
       </c>
       <c r="V160" s="26"/>
       <c r="W160" s="26"/>
-      <c r="X160" s="27"/>
+      <c r="X160" s="14"/>
       <c r="Y160" s="1" t="n">
-        <v>159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12151,9 +12096,9 @@
       </c>
       <c r="V161" s="26"/>
       <c r="W161" s="26"/>
-      <c r="X161" s="27"/>
+      <c r="X161" s="14"/>
       <c r="Y161" s="1" t="n">
-        <v>160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12214,9 +12159,9 @@
       </c>
       <c r="V162" s="26"/>
       <c r="W162" s="26"/>
-      <c r="X162" s="27"/>
+      <c r="X162" s="14"/>
       <c r="Y162" s="1" t="n">
-        <v>161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12277,9 +12222,9 @@
       </c>
       <c r="V163" s="26"/>
       <c r="W163" s="26"/>
-      <c r="X163" s="27"/>
+      <c r="X163" s="14"/>
       <c r="Y163" s="1" t="n">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12340,11 +12285,11 @@
       </c>
       <c r="V164" s="26"/>
       <c r="W164" s="26"/>
-      <c r="X164" s="27" t="s">
+      <c r="X164" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y164" s="1" t="n">
-        <v>163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12405,11 +12350,11 @@
       </c>
       <c r="V165" s="26"/>
       <c r="W165" s="26"/>
-      <c r="X165" s="27" t="s">
+      <c r="X165" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y165" s="1" t="n">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12470,9 +12415,9 @@
       </c>
       <c r="V166" s="26"/>
       <c r="W166" s="26"/>
-      <c r="X166" s="27"/>
+      <c r="X166" s="14"/>
       <c r="Y166" s="1" t="n">
-        <v>165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12533,9 +12478,9 @@
       </c>
       <c r="V167" s="26"/>
       <c r="W167" s="26"/>
-      <c r="X167" s="27"/>
+      <c r="X167" s="14"/>
       <c r="Y167" s="1" t="n">
-        <v>166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12596,9 +12541,9 @@
       </c>
       <c r="V168" s="26"/>
       <c r="W168" s="26"/>
-      <c r="X168" s="27"/>
+      <c r="X168" s="14"/>
       <c r="Y168" s="1" t="n">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12659,9 +12604,9 @@
       </c>
       <c r="V169" s="26"/>
       <c r="W169" s="26"/>
-      <c r="X169" s="27"/>
+      <c r="X169" s="14"/>
       <c r="Y169" s="1" t="n">
-        <v>168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12724,9 +12669,9 @@
       </c>
       <c r="V170" s="26"/>
       <c r="W170" s="26"/>
-      <c r="X170" s="27"/>
+      <c r="X170" s="14"/>
       <c r="Y170" s="1" t="n">
-        <v>169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12787,9 +12732,9 @@
       </c>
       <c r="V171" s="26"/>
       <c r="W171" s="26"/>
-      <c r="X171" s="27"/>
+      <c r="X171" s="14"/>
       <c r="Y171" s="1" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12845,9 +12790,9 @@
         <v>5000</v>
       </c>
       <c r="W172" s="26"/>
-      <c r="X172" s="27"/>
+      <c r="X172" s="14"/>
       <c r="Y172" s="1" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12908,9 +12853,9 @@
       </c>
       <c r="V173" s="26"/>
       <c r="W173" s="26"/>
-      <c r="X173" s="27"/>
+      <c r="X173" s="14"/>
       <c r="Y173" s="1" t="n">
-        <v>172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12971,9 +12916,9 @@
       </c>
       <c r="V174" s="26"/>
       <c r="W174" s="26"/>
-      <c r="X174" s="27"/>
+      <c r="X174" s="14"/>
       <c r="Y174" s="1" t="n">
-        <v>173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13034,9 +12979,9 @@
       </c>
       <c r="V175" s="26"/>
       <c r="W175" s="26"/>
-      <c r="X175" s="27"/>
+      <c r="X175" s="14"/>
       <c r="Y175" s="1" t="n">
-        <v>174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13097,9 +13042,9 @@
       </c>
       <c r="V176" s="26"/>
       <c r="W176" s="26"/>
-      <c r="X176" s="27"/>
+      <c r="X176" s="14"/>
       <c r="Y176" s="1" t="n">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13160,9 +13105,9 @@
       </c>
       <c r="V177" s="26"/>
       <c r="W177" s="26"/>
-      <c r="X177" s="27"/>
+      <c r="X177" s="14"/>
       <c r="Y177" s="1" t="n">
-        <v>176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13223,9 +13168,9 @@
       </c>
       <c r="V178" s="26"/>
       <c r="W178" s="26"/>
-      <c r="X178" s="27"/>
+      <c r="X178" s="14"/>
       <c r="Y178" s="1" t="n">
-        <v>177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13286,9 +13231,9 @@
       </c>
       <c r="V179" s="26"/>
       <c r="W179" s="26"/>
-      <c r="X179" s="27"/>
+      <c r="X179" s="14"/>
       <c r="Y179" s="1" t="n">
-        <v>178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13349,12 +13294,12 @@
       </c>
       <c r="V180" s="26"/>
       <c r="W180" s="26"/>
-      <c r="X180" s="27"/>
+      <c r="X180" s="14"/>
       <c r="Y180" s="1" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>180</v>
       </c>
@@ -13422,12 +13367,12 @@
         <f aca="false">U181-V181</f>
         <v>0</v>
       </c>
-      <c r="X181" s="27"/>
+      <c r="X181" s="14"/>
       <c r="Y181" s="1" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>181</v>
       </c>
@@ -13493,12 +13438,12 @@
         <f aca="false">U182-V182</f>
         <v>0</v>
       </c>
-      <c r="X182" s="27"/>
+      <c r="X182" s="14"/>
       <c r="Y182" s="1" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>182</v>
       </c>
@@ -13564,12 +13509,12 @@
         <f aca="false">U183-V183</f>
         <v>0</v>
       </c>
-      <c r="X183" s="27"/>
+      <c r="X183" s="14"/>
       <c r="Y183" s="1" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>183</v>
       </c>
@@ -13635,12 +13580,12 @@
         <f aca="false">U184-V184</f>
         <v>0</v>
       </c>
-      <c r="X184" s="27"/>
+      <c r="X184" s="14"/>
       <c r="Y184" s="1" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>184</v>
       </c>
@@ -13710,9 +13655,9 @@
         <f aca="false">U185-V185</f>
         <v>-20</v>
       </c>
-      <c r="X185" s="27"/>
+      <c r="X185" s="14"/>
       <c r="Y185" s="1" t="n">
-        <v>184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13768,12 +13713,12 @@
         <v>57</v>
       </c>
       <c r="W186" s="26"/>
-      <c r="X186" s="27"/>
+      <c r="X186" s="14"/>
       <c r="Y186" s="1" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>186</v>
       </c>
@@ -13839,14 +13784,14 @@
         <f aca="false">U187-V187</f>
         <v>0.399999999994179</v>
       </c>
-      <c r="X187" s="27" t="s">
+      <c r="X187" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y187" s="1" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>187</v>
       </c>
@@ -13912,14 +13857,14 @@
         <f aca="false">U188-V188</f>
         <v>0</v>
       </c>
-      <c r="X188" s="27" t="s">
+      <c r="X188" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y188" s="1" t="n">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>188</v>
       </c>
@@ -13987,14 +13932,14 @@
         <f aca="false">U189-V189</f>
         <v>0</v>
       </c>
-      <c r="X189" s="27" t="s">
+      <c r="X189" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y189" s="1" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>189</v>
       </c>
@@ -14060,12 +14005,12 @@
         <f aca="false">U190-V190</f>
         <v>0</v>
       </c>
-      <c r="X190" s="27"/>
+      <c r="X190" s="14"/>
       <c r="Y190" s="1" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>190</v>
       </c>
@@ -14133,12 +14078,12 @@
         <f aca="false">U191-V191</f>
         <v>0</v>
       </c>
-      <c r="X191" s="27"/>
+      <c r="X191" s="14"/>
       <c r="Y191" s="1" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>191</v>
       </c>
@@ -14204,12 +14149,12 @@
         <f aca="false">U192-V192</f>
         <v>0</v>
       </c>
-      <c r="X192" s="27"/>
+      <c r="X192" s="14"/>
       <c r="Y192" s="1" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>192</v>
       </c>
@@ -14275,12 +14220,12 @@
         <f aca="false">U193-V193</f>
         <v>0</v>
       </c>
-      <c r="X193" s="27"/>
+      <c r="X193" s="14"/>
       <c r="Y193" s="1" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>193</v>
       </c>
@@ -14346,12 +14291,12 @@
         <f aca="false">U194-V194</f>
         <v>0</v>
       </c>
-      <c r="X194" s="27"/>
+      <c r="X194" s="14"/>
       <c r="Y194" s="1" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>194</v>
       </c>
@@ -14419,12 +14364,12 @@
         <f aca="false">U195-V195</f>
         <v>0</v>
       </c>
-      <c r="X195" s="27"/>
+      <c r="X195" s="14"/>
       <c r="Y195" s="1" t="n">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>195</v>
       </c>
@@ -14490,12 +14435,12 @@
         <f aca="false">U196-V196</f>
         <v>0</v>
       </c>
-      <c r="X196" s="27"/>
+      <c r="X196" s="14"/>
       <c r="Y196" s="1" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>196</v>
       </c>
@@ -14561,12 +14506,12 @@
         <f aca="false">U197-V197</f>
         <v>0</v>
       </c>
-      <c r="X197" s="27"/>
+      <c r="X197" s="14"/>
       <c r="Y197" s="1" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>197</v>
       </c>
@@ -14632,12 +14577,12 @@
         <f aca="false">U198-V198</f>
         <v>0</v>
       </c>
-      <c r="X198" s="27"/>
+      <c r="X198" s="14"/>
       <c r="Y198" s="1" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>198</v>
       </c>
@@ -14703,14 +14648,14 @@
         <f aca="false">U199-V199</f>
         <v>0</v>
       </c>
-      <c r="X199" s="27" t="s">
+      <c r="X199" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y199" s="1" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>199</v>
       </c>
@@ -14778,12 +14723,12 @@
         <f aca="false">U200-V200</f>
         <v>500</v>
       </c>
-      <c r="X200" s="27"/>
+      <c r="X200" s="14"/>
       <c r="Y200" s="1" t="n">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>200</v>
       </c>
@@ -14851,12 +14796,12 @@
         <f aca="false">U201-V201</f>
         <v>0</v>
       </c>
-      <c r="X201" s="27"/>
+      <c r="X201" s="14"/>
       <c r="Y201" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>201</v>
       </c>
@@ -14922,12 +14867,12 @@
         <f aca="false">U202-V202</f>
         <v>0</v>
       </c>
-      <c r="X202" s="27"/>
+      <c r="X202" s="14"/>
       <c r="Y202" s="1" t="n">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>202</v>
       </c>
@@ -14999,12 +14944,12 @@
         <f aca="false">U203-V203</f>
         <v>0</v>
       </c>
-      <c r="X203" s="27"/>
+      <c r="X203" s="14"/>
       <c r="Y203" s="1" t="n">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>203</v>
       </c>
@@ -15070,12 +15015,12 @@
         <f aca="false">U204-V204</f>
         <v>0</v>
       </c>
-      <c r="X204" s="27"/>
+      <c r="X204" s="14"/>
       <c r="Y204" s="1" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>204</v>
       </c>
@@ -15141,12 +15086,12 @@
         <f aca="false">U205-V205</f>
         <v>1440</v>
       </c>
-      <c r="X205" s="27"/>
+      <c r="X205" s="14"/>
       <c r="Y205" s="1" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>205</v>
       </c>
@@ -15212,14 +15157,14 @@
         <f aca="false">U206-V206</f>
         <v>0</v>
       </c>
-      <c r="X206" s="27" t="s">
+      <c r="X206" s="14" t="s">
         <v>199</v>
       </c>
       <c r="Y206" s="1" t="n">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>206</v>
       </c>
@@ -15285,12 +15230,12 @@
         <f aca="false">U207-V207</f>
         <v>0</v>
       </c>
-      <c r="X207" s="27"/>
+      <c r="X207" s="14"/>
       <c r="Y207" s="1" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>207</v>
       </c>
@@ -15358,9 +15303,9 @@
         <f aca="false">U208-V208</f>
         <v>0</v>
       </c>
-      <c r="X208" s="27"/>
+      <c r="X208" s="14"/>
       <c r="Y208" s="1" t="n">
-        <v>207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15416,12 +15361,12 @@
         <v>480</v>
       </c>
       <c r="W209" s="26"/>
-      <c r="X209" s="27"/>
+      <c r="X209" s="14"/>
       <c r="Y209" s="1" t="n">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>209</v>
       </c>
@@ -15487,12 +15432,12 @@
         <f aca="false">U210-V210</f>
         <v>0</v>
       </c>
-      <c r="X210" s="27"/>
+      <c r="X210" s="14"/>
       <c r="Y210" s="1" t="n">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>210</v>
       </c>
@@ -15560,12 +15505,12 @@
         <f aca="false">U211-V211</f>
         <v>0</v>
       </c>
-      <c r="X211" s="27"/>
+      <c r="X211" s="14"/>
       <c r="Y211" s="1" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>211</v>
       </c>
@@ -15631,12 +15576,12 @@
         <f aca="false">U212-V212</f>
         <v>0</v>
       </c>
-      <c r="X212" s="27"/>
+      <c r="X212" s="14"/>
       <c r="Y212" s="1" t="n">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>212</v>
       </c>
@@ -15702,12 +15647,12 @@
         <f aca="false">U213-V213</f>
         <v>0</v>
       </c>
-      <c r="X213" s="27"/>
+      <c r="X213" s="14"/>
       <c r="Y213" s="1" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>213</v>
       </c>
@@ -15773,12 +15718,12 @@
         <f aca="false">U214-V214</f>
         <v>0</v>
       </c>
-      <c r="X214" s="27"/>
+      <c r="X214" s="14"/>
       <c r="Y214" s="1" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>214</v>
       </c>
@@ -15844,14 +15789,14 @@
         <f aca="false">U215-V215</f>
         <v>0</v>
       </c>
-      <c r="X215" s="27" t="s">
+      <c r="X215" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Y215" s="1" t="n">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>215</v>
       </c>
@@ -15917,14 +15862,14 @@
         <f aca="false">U216-V216</f>
         <v>0</v>
       </c>
-      <c r="X216" s="27" t="s">
+      <c r="X216" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y216" s="1" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>216</v>
       </c>
@@ -15990,12 +15935,12 @@
         <f aca="false">U217-V217</f>
         <v>0</v>
       </c>
-      <c r="X217" s="27"/>
+      <c r="X217" s="14"/>
       <c r="Y217" s="1" t="n">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>217</v>
       </c>
@@ -16063,12 +16008,12 @@
         <f aca="false">U218-V218</f>
         <v>0</v>
       </c>
-      <c r="X218" s="27"/>
+      <c r="X218" s="14"/>
       <c r="Y218" s="1" t="n">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>218</v>
       </c>
@@ -16134,12 +16079,12 @@
         <f aca="false">U219-V219</f>
         <v>0</v>
       </c>
-      <c r="X219" s="27"/>
+      <c r="X219" s="14"/>
       <c r="Y219" s="1" t="n">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>219</v>
       </c>
@@ -16207,12 +16152,12 @@
         <f aca="false">U220-V220</f>
         <v>0</v>
       </c>
-      <c r="X220" s="27"/>
+      <c r="X220" s="14"/>
       <c r="Y220" s="1" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>220</v>
       </c>
@@ -16280,12 +16225,12 @@
         <f aca="false">U221-V221</f>
         <v>0</v>
       </c>
-      <c r="X221" s="27"/>
+      <c r="X221" s="14"/>
       <c r="Y221" s="1" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>221</v>
       </c>
@@ -16351,12 +16296,12 @@
         <f aca="false">U222-V222</f>
         <v>0</v>
       </c>
-      <c r="X222" s="27"/>
+      <c r="X222" s="14"/>
       <c r="Y222" s="1" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>222</v>
       </c>
@@ -16422,12 +16367,12 @@
         <f aca="false">U223-V223</f>
         <v>0</v>
       </c>
-      <c r="X223" s="27"/>
+      <c r="X223" s="14"/>
       <c r="Y223" s="1" t="n">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>223</v>
       </c>
@@ -16493,14 +16438,14 @@
         <f aca="false">U224-V224</f>
         <v>0</v>
       </c>
-      <c r="X224" s="27" t="s">
+      <c r="X224" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y224" s="1" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>224</v>
       </c>
@@ -16566,12 +16511,12 @@
         <f aca="false">U225-V225</f>
         <v>0.0799999999871943</v>
       </c>
-      <c r="X225" s="27"/>
+      <c r="X225" s="14"/>
       <c r="Y225" s="1" t="n">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>225</v>
       </c>
@@ -16639,12 +16584,12 @@
         <f aca="false">U226-V226</f>
         <v>0</v>
       </c>
-      <c r="X226" s="27"/>
+      <c r="X226" s="14"/>
       <c r="Y226" s="1" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>226</v>
       </c>
@@ -16710,12 +16655,12 @@
         <f aca="false">U227-V227</f>
         <v>0</v>
       </c>
-      <c r="X227" s="27"/>
+      <c r="X227" s="14"/>
       <c r="Y227" s="1" t="n">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>227</v>
       </c>
@@ -16781,12 +16726,12 @@
         <f aca="false">U228-V228</f>
         <v>0</v>
       </c>
-      <c r="X228" s="27"/>
+      <c r="X228" s="14"/>
       <c r="Y228" s="1" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>228</v>
       </c>
@@ -16854,12 +16799,12 @@
         <f aca="false">U229-V229</f>
         <v>0.5</v>
       </c>
-      <c r="X229" s="27"/>
+      <c r="X229" s="14"/>
       <c r="Y229" s="1" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>229</v>
       </c>
@@ -16927,12 +16872,12 @@
         <f aca="false">U230-V230</f>
         <v>0</v>
       </c>
-      <c r="X230" s="27"/>
+      <c r="X230" s="14"/>
       <c r="Y230" s="1" t="n">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>230</v>
       </c>
@@ -16998,12 +16943,12 @@
         <f aca="false">U231-V231</f>
         <v>0</v>
       </c>
-      <c r="X231" s="27"/>
+      <c r="X231" s="14"/>
       <c r="Y231" s="1" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>231</v>
       </c>
@@ -17069,12 +17014,12 @@
         <f aca="false">U232-V232</f>
         <v>0</v>
       </c>
-      <c r="X232" s="27"/>
+      <c r="X232" s="14"/>
       <c r="Y232" s="1" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>232</v>
       </c>
@@ -17140,12 +17085,12 @@
         <f aca="false">U233-V233</f>
         <v>0</v>
       </c>
-      <c r="X233" s="27"/>
+      <c r="X233" s="14"/>
       <c r="Y233" s="1" t="n">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>233</v>
       </c>
@@ -17211,12 +17156,12 @@
         <f aca="false">U234-V234</f>
         <v>0</v>
       </c>
-      <c r="X234" s="27"/>
+      <c r="X234" s="14"/>
       <c r="Y234" s="1" t="n">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>234</v>
       </c>
@@ -17282,9 +17227,9 @@
         <f aca="false">U235-V235</f>
         <v>0</v>
       </c>
-      <c r="X235" s="27"/>
+      <c r="X235" s="14"/>
       <c r="Y235" s="1" t="n">
-        <v>234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17345,9 +17290,9 @@
       </c>
       <c r="V236" s="26"/>
       <c r="W236" s="26"/>
-      <c r="X236" s="27"/>
+      <c r="X236" s="14"/>
       <c r="Y236" s="1" t="n">
-        <v>235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17408,9 +17353,9 @@
       </c>
       <c r="V237" s="26"/>
       <c r="W237" s="26"/>
-      <c r="X237" s="27"/>
+      <c r="X237" s="14"/>
       <c r="Y237" s="1" t="n">
-        <v>236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17471,9 +17416,9 @@
       </c>
       <c r="V238" s="26"/>
       <c r="W238" s="26"/>
-      <c r="X238" s="27"/>
+      <c r="X238" s="14"/>
       <c r="Y238" s="1" t="n">
-        <v>237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17534,9 +17479,9 @@
       </c>
       <c r="V239" s="26"/>
       <c r="W239" s="26"/>
-      <c r="X239" s="27"/>
+      <c r="X239" s="14"/>
       <c r="Y239" s="1" t="n">
-        <v>238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17597,9 +17542,9 @@
       </c>
       <c r="V240" s="26"/>
       <c r="W240" s="26"/>
-      <c r="X240" s="27"/>
+      <c r="X240" s="14"/>
       <c r="Y240" s="1" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17662,9 +17607,9 @@
       </c>
       <c r="V241" s="26"/>
       <c r="W241" s="26"/>
-      <c r="X241" s="27"/>
+      <c r="X241" s="14"/>
       <c r="Y241" s="1" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17725,9 +17670,9 @@
       </c>
       <c r="V242" s="26"/>
       <c r="W242" s="26"/>
-      <c r="X242" s="27"/>
+      <c r="X242" s="14"/>
       <c r="Y242" s="1" t="n">
-        <v>241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17788,9 +17733,9 @@
       </c>
       <c r="V243" s="26"/>
       <c r="W243" s="26"/>
-      <c r="X243" s="27"/>
+      <c r="X243" s="14"/>
       <c r="Y243" s="1" t="n">
-        <v>242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17851,11 +17796,11 @@
       </c>
       <c r="V244" s="26"/>
       <c r="W244" s="26"/>
-      <c r="X244" s="27" t="s">
+      <c r="X244" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y244" s="1" t="n">
-        <v>243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17916,11 +17861,11 @@
       </c>
       <c r="V245" s="26"/>
       <c r="W245" s="26"/>
-      <c r="X245" s="27" t="s">
+      <c r="X245" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y245" s="1" t="n">
-        <v>244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17981,11 +17926,11 @@
       </c>
       <c r="V246" s="26"/>
       <c r="W246" s="26"/>
-      <c r="X246" s="27" t="s">
+      <c r="X246" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y246" s="1" t="n">
-        <v>245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18046,12 +17991,12 @@
       </c>
       <c r="V247" s="26"/>
       <c r="W247" s="26"/>
-      <c r="X247" s="27"/>
+      <c r="X247" s="14"/>
       <c r="Y247" s="1" t="n">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>247</v>
       </c>
@@ -18119,9 +18064,9 @@
         <f aca="false">U248-V248</f>
         <v>-0.200000000000728</v>
       </c>
-      <c r="X248" s="27"/>
+      <c r="X248" s="14"/>
       <c r="Y248" s="1" t="n">
-        <v>247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18182,9 +18127,9 @@
       </c>
       <c r="V249" s="26"/>
       <c r="W249" s="26"/>
-      <c r="X249" s="27"/>
+      <c r="X249" s="14"/>
       <c r="Y249" s="1" t="n">
-        <v>248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18245,9 +18190,9 @@
       </c>
       <c r="V250" s="26"/>
       <c r="W250" s="26"/>
-      <c r="X250" s="27"/>
+      <c r="X250" s="14"/>
       <c r="Y250" s="1" t="n">
-        <v>249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18308,9 +18253,9 @@
       </c>
       <c r="V251" s="26"/>
       <c r="W251" s="26"/>
-      <c r="X251" s="27"/>
+      <c r="X251" s="14"/>
       <c r="Y251" s="1" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18371,9 +18316,9 @@
       </c>
       <c r="V252" s="26"/>
       <c r="W252" s="26"/>
-      <c r="X252" s="27"/>
+      <c r="X252" s="14"/>
       <c r="Y252" s="1" t="n">
-        <v>251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18434,9 +18379,9 @@
       </c>
       <c r="V253" s="26"/>
       <c r="W253" s="26"/>
-      <c r="X253" s="27"/>
+      <c r="X253" s="14"/>
       <c r="Y253" s="1" t="n">
-        <v>252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18497,9 +18442,9 @@
       </c>
       <c r="V254" s="26"/>
       <c r="W254" s="26"/>
-      <c r="X254" s="27"/>
+      <c r="X254" s="14"/>
       <c r="Y254" s="1" t="n">
-        <v>253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18560,9 +18505,9 @@
       </c>
       <c r="V255" s="26"/>
       <c r="W255" s="26"/>
-      <c r="X255" s="27"/>
+      <c r="X255" s="14"/>
       <c r="Y255" s="1" t="n">
-        <v>254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18623,9 +18568,9 @@
       </c>
       <c r="V256" s="26"/>
       <c r="W256" s="26"/>
-      <c r="X256" s="27"/>
+      <c r="X256" s="14"/>
       <c r="Y256" s="1" t="n">
-        <v>255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18686,9 +18631,9 @@
       </c>
       <c r="V257" s="26"/>
       <c r="W257" s="26"/>
-      <c r="X257" s="27"/>
+      <c r="X257" s="14"/>
       <c r="Y257" s="1" t="n">
-        <v>256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18749,9 +18694,9 @@
       </c>
       <c r="V258" s="26"/>
       <c r="W258" s="26"/>
-      <c r="X258" s="27"/>
+      <c r="X258" s="14"/>
       <c r="Y258" s="1" t="n">
-        <v>257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18812,9 +18757,9 @@
       </c>
       <c r="V259" s="26"/>
       <c r="W259" s="26"/>
-      <c r="X259" s="27"/>
+      <c r="X259" s="14"/>
       <c r="Y259" s="1" t="n">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18875,9 +18820,9 @@
       </c>
       <c r="V260" s="26"/>
       <c r="W260" s="26"/>
-      <c r="X260" s="27"/>
+      <c r="X260" s="14"/>
       <c r="Y260" s="1" t="n">
-        <v>259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18938,9 +18883,9 @@
       </c>
       <c r="V261" s="26"/>
       <c r="W261" s="26"/>
-      <c r="X261" s="27"/>
+      <c r="X261" s="14"/>
       <c r="Y261" s="1" t="n">
-        <v>260</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19001,9 +18946,9 @@
       </c>
       <c r="V262" s="26"/>
       <c r="W262" s="26"/>
-      <c r="X262" s="27"/>
+      <c r="X262" s="14"/>
       <c r="Y262" s="1" t="n">
-        <v>261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19064,9 +19009,9 @@
       </c>
       <c r="V263" s="26"/>
       <c r="W263" s="26"/>
-      <c r="X263" s="27"/>
+      <c r="X263" s="14"/>
       <c r="Y263" s="1" t="n">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19127,9 +19072,9 @@
       </c>
       <c r="V264" s="26"/>
       <c r="W264" s="26"/>
-      <c r="X264" s="27"/>
+      <c r="X264" s="14"/>
       <c r="Y264" s="1" t="n">
-        <v>263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19190,12 +19135,12 @@
       </c>
       <c r="V265" s="26"/>
       <c r="W265" s="26"/>
-      <c r="X265" s="27"/>
+      <c r="X265" s="14"/>
       <c r="Y265" s="1" t="n">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <v>265</v>
       </c>
@@ -19263,12 +19208,12 @@
         <f aca="false">U266-V266</f>
         <v>0</v>
       </c>
-      <c r="X266" s="27"/>
+      <c r="X266" s="14"/>
       <c r="Y266" s="1" t="n">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <v>266</v>
       </c>
@@ -19334,12 +19279,12 @@
         <f aca="false">U267-V267</f>
         <v>0</v>
       </c>
-      <c r="X267" s="27"/>
+      <c r="X267" s="14"/>
       <c r="Y267" s="1" t="n">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <v>267</v>
       </c>
@@ -19405,12 +19350,12 @@
         <f aca="false">U268-V268</f>
         <v>0</v>
       </c>
-      <c r="X268" s="27"/>
+      <c r="X268" s="14"/>
       <c r="Y268" s="1" t="n">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <v>268</v>
       </c>
@@ -19478,12 +19423,12 @@
         <f aca="false">U269-V269</f>
         <v>0</v>
       </c>
-      <c r="X269" s="27"/>
+      <c r="X269" s="14"/>
       <c r="Y269" s="1" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <v>269</v>
       </c>
@@ -19549,12 +19494,12 @@
         <f aca="false">U270-V270</f>
         <v>0</v>
       </c>
-      <c r="X270" s="27"/>
+      <c r="X270" s="14"/>
       <c r="Y270" s="1" t="n">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>270</v>
       </c>
@@ -19620,12 +19565,12 @@
         <f aca="false">U271-V271</f>
         <v>0</v>
       </c>
-      <c r="X271" s="27"/>
+      <c r="X271" s="14"/>
       <c r="Y271" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>271</v>
       </c>
@@ -19691,12 +19636,12 @@
         <f aca="false">U272-V272</f>
         <v>0</v>
       </c>
-      <c r="X272" s="27"/>
+      <c r="X272" s="14"/>
       <c r="Y272" s="1" t="n">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>272</v>
       </c>
@@ -19766,9 +19711,9 @@
         <f aca="false">U273-V273</f>
         <v>0</v>
       </c>
-      <c r="X273" s="27"/>
+      <c r="X273" s="14"/>
       <c r="Y273" s="1" t="n">
-        <v>272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19824,12 +19769,12 @@
         <v>371</v>
       </c>
       <c r="W274" s="26"/>
-      <c r="X274" s="27"/>
+      <c r="X274" s="14"/>
       <c r="Y274" s="1" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <v>274</v>
       </c>
@@ -19897,12 +19842,12 @@
         <f aca="false">U275-V275</f>
         <v>0</v>
       </c>
-      <c r="X275" s="27"/>
+      <c r="X275" s="14"/>
       <c r="Y275" s="1" t="n">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <v>275</v>
       </c>
@@ -19968,12 +19913,12 @@
         <f aca="false">U276-V276</f>
         <v>0</v>
       </c>
-      <c r="X276" s="27"/>
+      <c r="X276" s="14"/>
       <c r="Y276" s="1" t="n">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <v>276</v>
       </c>
@@ -20041,12 +19986,12 @@
         <f aca="false">U277-V277</f>
         <v>0</v>
       </c>
-      <c r="X277" s="27"/>
+      <c r="X277" s="14"/>
       <c r="Y277" s="1" t="n">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <v>277</v>
       </c>
@@ -20112,12 +20057,12 @@
         <f aca="false">U278-V278</f>
         <v>0</v>
       </c>
-      <c r="X278" s="27"/>
+      <c r="X278" s="14"/>
       <c r="Y278" s="1" t="n">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <v>278</v>
       </c>
@@ -20183,12 +20128,12 @@
         <f aca="false">U279-V279</f>
         <v>0</v>
       </c>
-      <c r="X279" s="27"/>
+      <c r="X279" s="14"/>
       <c r="Y279" s="1" t="n">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <v>279</v>
       </c>
@@ -20254,12 +20199,12 @@
         <f aca="false">U280-V280</f>
         <v>0</v>
       </c>
-      <c r="X280" s="27"/>
+      <c r="X280" s="14"/>
       <c r="Y280" s="1" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <v>280</v>
       </c>
@@ -20325,12 +20270,12 @@
         <f aca="false">U281-V281</f>
         <v>0</v>
       </c>
-      <c r="X281" s="27"/>
+      <c r="X281" s="14"/>
       <c r="Y281" s="1" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <v>281</v>
       </c>
@@ -20398,14 +20343,14 @@
         <f aca="false">U282-V282</f>
         <v>0</v>
       </c>
-      <c r="X282" s="27" t="s">
+      <c r="X282" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y282" s="1" t="n">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <v>282</v>
       </c>
@@ -20471,14 +20416,14 @@
         <f aca="false">U283-V283</f>
         <v>0</v>
       </c>
-      <c r="X283" s="27" t="s">
+      <c r="X283" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y283" s="1" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <v>283</v>
       </c>
@@ -20544,14 +20489,14 @@
         <f aca="false">U284-V284</f>
         <v>0</v>
       </c>
-      <c r="X284" s="27" t="s">
+      <c r="X284" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y284" s="1" t="n">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
         <v>284</v>
       </c>
@@ -20619,14 +20564,14 @@
         <f aca="false">U285-V285</f>
         <v>0</v>
       </c>
-      <c r="X285" s="27" t="s">
+      <c r="X285" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y285" s="1" t="n">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
         <v>285</v>
       </c>
@@ -20694,12 +20639,12 @@
         <f aca="false">U286-V286</f>
         <v>0</v>
       </c>
-      <c r="X286" s="27"/>
+      <c r="X286" s="14"/>
       <c r="Y286" s="1" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <v>286</v>
       </c>
@@ -20765,12 +20710,12 @@
         <f aca="false">U287-V287</f>
         <v>0</v>
       </c>
-      <c r="X287" s="27"/>
+      <c r="X287" s="14"/>
       <c r="Y287" s="1" t="n">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <v>287</v>
       </c>
@@ -20836,12 +20781,12 @@
         <f aca="false">U288-V288</f>
         <v>0</v>
       </c>
-      <c r="X288" s="27"/>
+      <c r="X288" s="14"/>
       <c r="Y288" s="1" t="n">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
         <v>288</v>
       </c>
@@ -20907,12 +20852,12 @@
         <f aca="false">U289-V289</f>
         <v>0</v>
       </c>
-      <c r="X289" s="27"/>
+      <c r="X289" s="14"/>
       <c r="Y289" s="1" t="n">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
         <v>289</v>
       </c>
@@ -20978,12 +20923,12 @@
         <f aca="false">U290-V290</f>
         <v>0</v>
       </c>
-      <c r="X290" s="27"/>
+      <c r="X290" s="14"/>
       <c r="Y290" s="1" t="n">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <v>290</v>
       </c>
@@ -21049,9 +20994,9 @@
         <f aca="false">U291-V291</f>
         <v>0</v>
       </c>
-      <c r="X291" s="27"/>
+      <c r="X291" s="14"/>
       <c r="Y291" s="1" t="n">
-        <v>290</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21112,9 +21057,9 @@
       </c>
       <c r="V292" s="26"/>
       <c r="W292" s="26"/>
-      <c r="X292" s="27"/>
+      <c r="X292" s="14"/>
       <c r="Y292" s="1" t="n">
-        <v>291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21175,9 +21120,9 @@
       </c>
       <c r="V293" s="26"/>
       <c r="W293" s="26"/>
-      <c r="X293" s="27"/>
+      <c r="X293" s="14"/>
       <c r="Y293" s="1" t="n">
-        <v>292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21233,9 +21178,9 @@
         <v>140</v>
       </c>
       <c r="W294" s="26"/>
-      <c r="X294" s="27"/>
+      <c r="X294" s="14"/>
       <c r="Y294" s="1" t="n">
-        <v>293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21296,11 +21241,11 @@
       </c>
       <c r="V295" s="26"/>
       <c r="W295" s="26"/>
-      <c r="X295" s="27" t="s">
+      <c r="X295" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Y295" s="1" t="n">
-        <v>294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21361,9 +21306,9 @@
       </c>
       <c r="V296" s="26"/>
       <c r="W296" s="26"/>
-      <c r="X296" s="27"/>
+      <c r="X296" s="14"/>
       <c r="Y296" s="1" t="n">
-        <v>295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21424,9 +21369,9 @@
       </c>
       <c r="V297" s="26"/>
       <c r="W297" s="26"/>
-      <c r="X297" s="27"/>
+      <c r="X297" s="14"/>
       <c r="Y297" s="1" t="n">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21487,9 +21432,9 @@
       </c>
       <c r="V298" s="26"/>
       <c r="W298" s="26"/>
-      <c r="X298" s="27"/>
+      <c r="X298" s="14"/>
       <c r="Y298" s="1" t="n">
-        <v>297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21550,9 +21495,9 @@
       </c>
       <c r="V299" s="26"/>
       <c r="W299" s="26"/>
-      <c r="X299" s="27"/>
+      <c r="X299" s="14"/>
       <c r="Y299" s="1" t="n">
-        <v>298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21613,9 +21558,9 @@
       </c>
       <c r="V300" s="26"/>
       <c r="W300" s="26"/>
-      <c r="X300" s="27"/>
+      <c r="X300" s="14"/>
       <c r="Y300" s="1" t="n">
-        <v>299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21676,9 +21621,9 @@
       </c>
       <c r="V301" s="26"/>
       <c r="W301" s="26"/>
-      <c r="X301" s="27"/>
+      <c r="X301" s="14"/>
       <c r="Y301" s="1" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21739,9 +21684,9 @@
       </c>
       <c r="V302" s="26"/>
       <c r="W302" s="26"/>
-      <c r="X302" s="27"/>
+      <c r="X302" s="14"/>
       <c r="Y302" s="1" t="n">
-        <v>301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21802,9 +21747,9 @@
       </c>
       <c r="V303" s="26"/>
       <c r="W303" s="26"/>
-      <c r="X303" s="27"/>
+      <c r="X303" s="14"/>
       <c r="Y303" s="1" t="n">
-        <v>302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21865,9 +21810,9 @@
       </c>
       <c r="V304" s="26"/>
       <c r="W304" s="26"/>
-      <c r="X304" s="27"/>
+      <c r="X304" s="14"/>
       <c r="Y304" s="1" t="n">
-        <v>303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21928,9 +21873,9 @@
       </c>
       <c r="V305" s="26"/>
       <c r="W305" s="26"/>
-      <c r="X305" s="27"/>
+      <c r="X305" s="14"/>
       <c r="Y305" s="1" t="n">
-        <v>304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21975,7 +21920,7 @@
       </c>
       <c r="N306" s="22"/>
       <c r="O306" s="22"/>
-      <c r="P306" s="32" t="n">
+      <c r="P306" s="31" t="n">
         <v>6</v>
       </c>
       <c r="Q306" s="24" t="n">
@@ -21991,9 +21936,9 @@
       </c>
       <c r="V306" s="26"/>
       <c r="W306" s="26"/>
-      <c r="X306" s="27"/>
+      <c r="X306" s="14"/>
       <c r="Y306" s="1" t="n">
-        <v>305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22054,9 +21999,9 @@
       </c>
       <c r="V307" s="26"/>
       <c r="W307" s="26"/>
-      <c r="X307" s="27"/>
+      <c r="X307" s="14"/>
       <c r="Y307" s="1" t="n">
-        <v>306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22109,9 +22054,9 @@
       <c r="U308" s="25"/>
       <c r="V308" s="26"/>
       <c r="W308" s="26"/>
-      <c r="X308" s="27"/>
+      <c r="X308" s="14"/>
       <c r="Y308" s="1" t="n">
-        <v>307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22172,11 +22117,11 @@
       </c>
       <c r="V309" s="26"/>
       <c r="W309" s="26"/>
-      <c r="X309" s="27" t="s">
+      <c r="X309" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y309" s="1" t="n">
-        <v>308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22237,9 +22182,9 @@
       </c>
       <c r="V310" s="26"/>
       <c r="W310" s="26"/>
-      <c r="X310" s="27"/>
+      <c r="X310" s="14"/>
       <c r="Y310" s="1" t="n">
-        <v>309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22300,9 +22245,9 @@
       </c>
       <c r="V311" s="26"/>
       <c r="W311" s="26"/>
-      <c r="X311" s="27"/>
+      <c r="X311" s="14"/>
       <c r="Y311" s="1" t="n">
-        <v>310</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22363,11 +22308,11 @@
       </c>
       <c r="V312" s="26"/>
       <c r="W312" s="26"/>
-      <c r="X312" s="27" t="s">
+      <c r="X312" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Y312" s="1" t="n">
-        <v>311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22428,9 +22373,9 @@
       </c>
       <c r="V313" s="26"/>
       <c r="W313" s="26"/>
-      <c r="X313" s="27"/>
+      <c r="X313" s="14"/>
       <c r="Y313" s="1" t="n">
-        <v>312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22491,9 +22436,9 @@
       </c>
       <c r="V314" s="26"/>
       <c r="W314" s="26"/>
-      <c r="X314" s="27"/>
+      <c r="X314" s="14"/>
       <c r="Y314" s="1" t="n">
-        <v>313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22554,9 +22499,9 @@
       </c>
       <c r="V315" s="26"/>
       <c r="W315" s="26"/>
-      <c r="X315" s="27"/>
+      <c r="X315" s="14"/>
       <c r="Y315" s="1" t="n">
-        <v>314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22617,9 +22562,9 @@
       </c>
       <c r="V316" s="26"/>
       <c r="W316" s="26"/>
-      <c r="X316" s="27"/>
+      <c r="X316" s="14"/>
       <c r="Y316" s="1" t="n">
-        <v>315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22680,9 +22625,9 @@
       </c>
       <c r="V317" s="26"/>
       <c r="W317" s="26"/>
-      <c r="X317" s="27"/>
+      <c r="X317" s="14"/>
       <c r="Y317" s="1" t="n">
-        <v>316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22743,9 +22688,9 @@
       </c>
       <c r="V318" s="26"/>
       <c r="W318" s="26"/>
-      <c r="X318" s="27"/>
+      <c r="X318" s="14"/>
       <c r="Y318" s="1" t="n">
-        <v>317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22806,9 +22751,9 @@
       </c>
       <c r="V319" s="26"/>
       <c r="W319" s="26"/>
-      <c r="X319" s="27"/>
+      <c r="X319" s="14"/>
       <c r="Y319" s="1" t="n">
-        <v>318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22869,9 +22814,9 @@
       </c>
       <c r="V320" s="26"/>
       <c r="W320" s="26"/>
-      <c r="X320" s="27"/>
+      <c r="X320" s="14"/>
       <c r="Y320" s="1" t="n">
-        <v>319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22932,9 +22877,9 @@
       </c>
       <c r="V321" s="26"/>
       <c r="W321" s="26"/>
-      <c r="X321" s="27"/>
+      <c r="X321" s="14"/>
       <c r="Y321" s="1" t="n">
-        <v>320</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22995,11 +22940,11 @@
       </c>
       <c r="V322" s="26"/>
       <c r="W322" s="26"/>
-      <c r="X322" s="27" t="s">
+      <c r="X322" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Y322" s="1" t="n">
-        <v>321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23036,10 +22981,10 @@
       <c r="K323" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="L323" s="33" t="n">
+      <c r="L323" s="32" t="n">
         <v>5500</v>
       </c>
-      <c r="M323" s="31" t="s">
+      <c r="M323" s="30" t="s">
         <v>35</v>
       </c>
       <c r="N323" s="22" t="n">
@@ -23060,11 +23005,11 @@
       </c>
       <c r="V323" s="26"/>
       <c r="W323" s="26"/>
-      <c r="X323" s="27" t="s">
+      <c r="X323" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y323" s="1" t="n">
-        <v>322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23125,9 +23070,9 @@
       </c>
       <c r="V324" s="26"/>
       <c r="W324" s="26"/>
-      <c r="X324" s="27"/>
+      <c r="X324" s="14"/>
       <c r="Y324" s="1" t="n">
-        <v>323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23188,9 +23133,9 @@
       </c>
       <c r="V325" s="26"/>
       <c r="W325" s="26"/>
-      <c r="X325" s="27"/>
+      <c r="X325" s="14"/>
       <c r="Y325" s="1" t="n">
-        <v>324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23251,9 +23196,9 @@
       </c>
       <c r="V326" s="26"/>
       <c r="W326" s="26"/>
-      <c r="X326" s="27"/>
+      <c r="X326" s="14"/>
       <c r="Y326" s="1" t="n">
-        <v>325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23314,11 +23259,11 @@
       </c>
       <c r="V327" s="26"/>
       <c r="W327" s="26"/>
-      <c r="X327" s="27" t="s">
+      <c r="X327" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Y327" s="1" t="n">
-        <v>326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23379,9 +23324,9 @@
       </c>
       <c r="V328" s="26"/>
       <c r="W328" s="26"/>
-      <c r="X328" s="27"/>
+      <c r="X328" s="14"/>
       <c r="Y328" s="1" t="n">
-        <v>327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23442,9 +23387,9 @@
       </c>
       <c r="V329" s="26"/>
       <c r="W329" s="26"/>
-      <c r="X329" s="27"/>
+      <c r="X329" s="14"/>
       <c r="Y329" s="1" t="n">
-        <v>328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23505,9 +23450,9 @@
       </c>
       <c r="V330" s="26"/>
       <c r="W330" s="26"/>
-      <c r="X330" s="27"/>
+      <c r="X330" s="14"/>
       <c r="Y330" s="1" t="n">
-        <v>329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23568,9 +23513,9 @@
       </c>
       <c r="V331" s="26"/>
       <c r="W331" s="26"/>
-      <c r="X331" s="27"/>
+      <c r="X331" s="14"/>
       <c r="Y331" s="1" t="n">
-        <v>330</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23631,9 +23576,9 @@
       </c>
       <c r="V332" s="26"/>
       <c r="W332" s="26"/>
-      <c r="X332" s="27"/>
+      <c r="X332" s="14"/>
       <c r="Y332" s="1" t="n">
-        <v>331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23694,9 +23639,9 @@
       </c>
       <c r="V333" s="26"/>
       <c r="W333" s="26"/>
-      <c r="X333" s="27"/>
+      <c r="X333" s="14"/>
       <c r="Y333" s="1" t="n">
-        <v>332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23757,9 +23702,9 @@
       </c>
       <c r="V334" s="26"/>
       <c r="W334" s="26"/>
-      <c r="X334" s="27"/>
+      <c r="X334" s="14"/>
       <c r="Y334" s="1" t="n">
-        <v>333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23820,9 +23765,9 @@
       </c>
       <c r="V335" s="26"/>
       <c r="W335" s="26"/>
-      <c r="X335" s="27"/>
+      <c r="X335" s="14"/>
       <c r="Y335" s="1" t="n">
-        <v>334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23883,9 +23828,9 @@
       </c>
       <c r="V336" s="26"/>
       <c r="W336" s="26"/>
-      <c r="X336" s="27"/>
+      <c r="X336" s="14"/>
       <c r="Y336" s="1" t="n">
-        <v>335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23946,9 +23891,9 @@
       </c>
       <c r="V337" s="26"/>
       <c r="W337" s="26"/>
-      <c r="X337" s="27"/>
+      <c r="X337" s="14"/>
       <c r="Y337" s="1" t="n">
-        <v>336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24009,9 +23954,9 @@
       </c>
       <c r="V338" s="26"/>
       <c r="W338" s="26"/>
-      <c r="X338" s="27"/>
+      <c r="X338" s="14"/>
       <c r="Y338" s="1" t="n">
-        <v>337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24072,9 +24017,9 @@
       </c>
       <c r="V339" s="26"/>
       <c r="W339" s="26"/>
-      <c r="X339" s="27"/>
+      <c r="X339" s="14"/>
       <c r="Y339" s="1" t="n">
-        <v>338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24135,9 +24080,9 @@
       </c>
       <c r="V340" s="26"/>
       <c r="W340" s="26"/>
-      <c r="X340" s="27"/>
+      <c r="X340" s="14"/>
       <c r="Y340" s="1" t="n">
-        <v>339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24198,9 +24143,9 @@
       </c>
       <c r="V341" s="26"/>
       <c r="W341" s="26"/>
-      <c r="X341" s="27"/>
+      <c r="X341" s="14"/>
       <c r="Y341" s="1" t="n">
-        <v>340</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24261,9 +24206,9 @@
       </c>
       <c r="V342" s="26"/>
       <c r="W342" s="26"/>
-      <c r="X342" s="27"/>
+      <c r="X342" s="14"/>
       <c r="Y342" s="1" t="n">
-        <v>341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24324,9 +24269,9 @@
       </c>
       <c r="V343" s="26"/>
       <c r="W343" s="26"/>
-      <c r="X343" s="27"/>
+      <c r="X343" s="14"/>
       <c r="Y343" s="1" t="n">
-        <v>342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24387,9 +24332,9 @@
       </c>
       <c r="V344" s="26"/>
       <c r="W344" s="26"/>
-      <c r="X344" s="27"/>
+      <c r="X344" s="14"/>
       <c r="Y344" s="1" t="n">
-        <v>343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24450,9 +24395,9 @@
       </c>
       <c r="V345" s="26"/>
       <c r="W345" s="26"/>
-      <c r="X345" s="27"/>
+      <c r="X345" s="14"/>
       <c r="Y345" s="1" t="n">
-        <v>344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24513,9 +24458,9 @@
       </c>
       <c r="V346" s="26"/>
       <c r="W346" s="26"/>
-      <c r="X346" s="27"/>
+      <c r="X346" s="14"/>
       <c r="Y346" s="1" t="n">
-        <v>345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24576,9 +24521,9 @@
       </c>
       <c r="V347" s="26"/>
       <c r="W347" s="26"/>
-      <c r="X347" s="27"/>
+      <c r="X347" s="14"/>
       <c r="Y347" s="1" t="n">
-        <v>346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24639,9 +24584,9 @@
       </c>
       <c r="V348" s="26"/>
       <c r="W348" s="26"/>
-      <c r="X348" s="27"/>
+      <c r="X348" s="14"/>
       <c r="Y348" s="1" t="n">
-        <v>347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24702,9 +24647,9 @@
       </c>
       <c r="V349" s="26"/>
       <c r="W349" s="26"/>
-      <c r="X349" s="27"/>
+      <c r="X349" s="14"/>
       <c r="Y349" s="1" t="n">
-        <v>348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24765,9 +24710,9 @@
       </c>
       <c r="V350" s="26"/>
       <c r="W350" s="26"/>
-      <c r="X350" s="27"/>
+      <c r="X350" s="14"/>
       <c r="Y350" s="1" t="n">
-        <v>349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24828,9 +24773,9 @@
       </c>
       <c r="V351" s="26"/>
       <c r="W351" s="26"/>
-      <c r="X351" s="27"/>
+      <c r="X351" s="14"/>
       <c r="Y351" s="1" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24891,11 +24836,11 @@
       </c>
       <c r="V352" s="26"/>
       <c r="W352" s="26"/>
-      <c r="X352" s="27" t="s">
+      <c r="X352" s="14" t="s">
         <v>281</v>
       </c>
       <c r="Y352" s="1" t="n">
-        <v>351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24956,9 +24901,9 @@
       </c>
       <c r="V353" s="26"/>
       <c r="W353" s="26"/>
-      <c r="X353" s="27"/>
+      <c r="X353" s="14"/>
       <c r="Y353" s="1" t="n">
-        <v>352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25019,9 +24964,9 @@
       </c>
       <c r="V354" s="26"/>
       <c r="W354" s="26"/>
-      <c r="X354" s="27"/>
+      <c r="X354" s="14"/>
       <c r="Y354" s="1" t="n">
-        <v>353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25082,9 +25027,9 @@
       </c>
       <c r="V355" s="26"/>
       <c r="W355" s="26"/>
-      <c r="X355" s="27"/>
+      <c r="X355" s="14"/>
       <c r="Y355" s="1" t="n">
-        <v>354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25145,11 +25090,11 @@
       </c>
       <c r="V356" s="26"/>
       <c r="W356" s="26"/>
-      <c r="X356" s="27" t="s">
+      <c r="X356" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y356" s="1" t="n">
-        <v>355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25210,9 +25155,9 @@
       </c>
       <c r="V357" s="26"/>
       <c r="W357" s="26"/>
-      <c r="X357" s="27"/>
+      <c r="X357" s="14"/>
       <c r="Y357" s="1" t="n">
-        <v>356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25273,9 +25218,9 @@
       </c>
       <c r="V358" s="26"/>
       <c r="W358" s="26"/>
-      <c r="X358" s="27"/>
+      <c r="X358" s="14"/>
       <c r="Y358" s="1" t="n">
-        <v>357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25336,9 +25281,9 @@
       </c>
       <c r="V359" s="26"/>
       <c r="W359" s="26"/>
-      <c r="X359" s="27"/>
+      <c r="X359" s="14"/>
       <c r="Y359" s="1" t="n">
-        <v>358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25399,9 +25344,9 @@
       </c>
       <c r="V360" s="26"/>
       <c r="W360" s="26"/>
-      <c r="X360" s="27"/>
+      <c r="X360" s="14"/>
       <c r="Y360" s="1" t="n">
-        <v>359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25462,9 +25407,9 @@
       </c>
       <c r="V361" s="26"/>
       <c r="W361" s="26"/>
-      <c r="X361" s="27"/>
+      <c r="X361" s="14"/>
       <c r="Y361" s="1" t="n">
-        <v>360</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25525,9 +25470,9 @@
       </c>
       <c r="V362" s="26"/>
       <c r="W362" s="26"/>
-      <c r="X362" s="27"/>
+      <c r="X362" s="14"/>
       <c r="Y362" s="1" t="n">
-        <v>361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25588,9 +25533,9 @@
       </c>
       <c r="V363" s="26"/>
       <c r="W363" s="26"/>
-      <c r="X363" s="27"/>
+      <c r="X363" s="14"/>
       <c r="Y363" s="1" t="n">
-        <v>362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25651,9 +25596,9 @@
       </c>
       <c r="V364" s="26"/>
       <c r="W364" s="26"/>
-      <c r="X364" s="27"/>
+      <c r="X364" s="14"/>
       <c r="Y364" s="1" t="n">
-        <v>363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25714,9 +25659,9 @@
       </c>
       <c r="V365" s="26"/>
       <c r="W365" s="26"/>
-      <c r="X365" s="27"/>
+      <c r="X365" s="14"/>
       <c r="Y365" s="1" t="n">
-        <v>364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25777,9 +25722,9 @@
       </c>
       <c r="V366" s="26"/>
       <c r="W366" s="26"/>
-      <c r="X366" s="27"/>
+      <c r="X366" s="14"/>
       <c r="Y366" s="1" t="n">
-        <v>365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25840,9 +25785,9 @@
       </c>
       <c r="V367" s="26"/>
       <c r="W367" s="26"/>
-      <c r="X367" s="27"/>
+      <c r="X367" s="14"/>
       <c r="Y367" s="1" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25903,9 +25848,9 @@
       </c>
       <c r="V368" s="26"/>
       <c r="W368" s="26"/>
-      <c r="X368" s="27"/>
+      <c r="X368" s="14"/>
       <c r="Y368" s="1" t="n">
-        <v>367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25966,9 +25911,9 @@
       </c>
       <c r="V369" s="26"/>
       <c r="W369" s="26"/>
-      <c r="X369" s="27"/>
+      <c r="X369" s="14"/>
       <c r="Y369" s="1" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26029,9 +25974,9 @@
       </c>
       <c r="V370" s="26"/>
       <c r="W370" s="26"/>
-      <c r="X370" s="27"/>
+      <c r="X370" s="14"/>
       <c r="Y370" s="1" t="n">
-        <v>369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26092,9 +26037,9 @@
       </c>
       <c r="V371" s="26"/>
       <c r="W371" s="26"/>
-      <c r="X371" s="27"/>
+      <c r="X371" s="14"/>
       <c r="Y371" s="1" t="n">
-        <v>370</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26155,9 +26100,9 @@
       </c>
       <c r="V372" s="26"/>
       <c r="W372" s="26"/>
-      <c r="X372" s="27"/>
+      <c r="X372" s="14"/>
       <c r="Y372" s="1" t="n">
-        <v>371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26218,9 +26163,9 @@
       </c>
       <c r="V373" s="26"/>
       <c r="W373" s="26"/>
-      <c r="X373" s="27"/>
+      <c r="X373" s="14"/>
       <c r="Y373" s="1" t="n">
-        <v>372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26281,9 +26226,9 @@
       </c>
       <c r="V374" s="26"/>
       <c r="W374" s="26"/>
-      <c r="X374" s="27"/>
+      <c r="X374" s="14"/>
       <c r="Y374" s="1" t="n">
-        <v>373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26344,9 +26289,9 @@
       </c>
       <c r="V375" s="26"/>
       <c r="W375" s="26"/>
-      <c r="X375" s="27"/>
+      <c r="X375" s="14"/>
       <c r="Y375" s="1" t="n">
-        <v>374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26407,9 +26352,9 @@
       </c>
       <c r="V376" s="26"/>
       <c r="W376" s="26"/>
-      <c r="X376" s="27"/>
+      <c r="X376" s="14"/>
       <c r="Y376" s="1" t="n">
-        <v>375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26470,9 +26415,9 @@
       </c>
       <c r="V377" s="26"/>
       <c r="W377" s="26"/>
-      <c r="X377" s="27"/>
+      <c r="X377" s="14"/>
       <c r="Y377" s="1" t="n">
-        <v>376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26533,9 +26478,9 @@
       </c>
       <c r="V378" s="26"/>
       <c r="W378" s="26"/>
-      <c r="X378" s="27"/>
+      <c r="X378" s="14"/>
       <c r="Y378" s="1" t="n">
-        <v>377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26596,9 +26541,9 @@
       </c>
       <c r="V379" s="26"/>
       <c r="W379" s="26"/>
-      <c r="X379" s="27"/>
+      <c r="X379" s="14"/>
       <c r="Y379" s="1" t="n">
-        <v>378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26654,9 +26599,9 @@
         <v>540</v>
       </c>
       <c r="W380" s="26"/>
-      <c r="X380" s="27"/>
+      <c r="X380" s="14"/>
       <c r="Y380" s="1" t="n">
-        <v>379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26717,9 +26662,9 @@
       </c>
       <c r="V381" s="26"/>
       <c r="W381" s="26"/>
-      <c r="X381" s="27"/>
+      <c r="X381" s="14"/>
       <c r="Y381" s="1" t="n">
-        <v>380</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26780,9 +26725,9 @@
       </c>
       <c r="V382" s="26"/>
       <c r="W382" s="26"/>
-      <c r="X382" s="27"/>
+      <c r="X382" s="14"/>
       <c r="Y382" s="1" t="n">
-        <v>381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26843,9 +26788,9 @@
       </c>
       <c r="V383" s="26"/>
       <c r="W383" s="26"/>
-      <c r="X383" s="27"/>
+      <c r="X383" s="14"/>
       <c r="Y383" s="1" t="n">
-        <v>382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26906,9 +26851,9 @@
       </c>
       <c r="V384" s="26"/>
       <c r="W384" s="26"/>
-      <c r="X384" s="27"/>
+      <c r="X384" s="14"/>
       <c r="Y384" s="1" t="n">
-        <v>383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26969,9 +26914,9 @@
       </c>
       <c r="V385" s="26"/>
       <c r="W385" s="26"/>
-      <c r="X385" s="27"/>
+      <c r="X385" s="14"/>
       <c r="Y385" s="1" t="n">
-        <v>384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27032,9 +26977,9 @@
       </c>
       <c r="V386" s="26"/>
       <c r="W386" s="26"/>
-      <c r="X386" s="27"/>
+      <c r="X386" s="14"/>
       <c r="Y386" s="1" t="n">
-        <v>385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27095,9 +27040,9 @@
       </c>
       <c r="V387" s="26"/>
       <c r="W387" s="26"/>
-      <c r="X387" s="27"/>
+      <c r="X387" s="14"/>
       <c r="Y387" s="1" t="n">
-        <v>386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27158,11 +27103,11 @@
       </c>
       <c r="V388" s="26"/>
       <c r="W388" s="26"/>
-      <c r="X388" s="27" t="s">
+      <c r="X388" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y388" s="1" t="n">
-        <v>387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27223,9 +27168,9 @@
       </c>
       <c r="V389" s="26"/>
       <c r="W389" s="26"/>
-      <c r="X389" s="27"/>
+      <c r="X389" s="14"/>
       <c r="Y389" s="1" t="n">
-        <v>388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27286,9 +27231,9 @@
       </c>
       <c r="V390" s="26"/>
       <c r="W390" s="26"/>
-      <c r="X390" s="27"/>
+      <c r="X390" s="14"/>
       <c r="Y390" s="1" t="n">
-        <v>389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27349,9 +27294,9 @@
       </c>
       <c r="V391" s="26"/>
       <c r="W391" s="26"/>
-      <c r="X391" s="27"/>
+      <c r="X391" s="14"/>
       <c r="Y391" s="1" t="n">
-        <v>390</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27412,9 +27357,9 @@
       </c>
       <c r="V392" s="26"/>
       <c r="W392" s="26"/>
-      <c r="X392" s="27"/>
+      <c r="X392" s="14"/>
       <c r="Y392" s="1" t="n">
-        <v>391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27475,9 +27420,9 @@
       </c>
       <c r="V393" s="26"/>
       <c r="W393" s="26"/>
-      <c r="X393" s="27"/>
+      <c r="X393" s="14"/>
       <c r="Y393" s="1" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27538,9 +27483,9 @@
       </c>
       <c r="V394" s="26"/>
       <c r="W394" s="26"/>
-      <c r="X394" s="27"/>
+      <c r="X394" s="14"/>
       <c r="Y394" s="1" t="n">
-        <v>393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27596,9 +27541,9 @@
         <v>3450</v>
       </c>
       <c r="W395" s="26"/>
-      <c r="X395" s="27"/>
+      <c r="X395" s="14"/>
       <c r="Y395" s="1" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27654,9 +27599,9 @@
         <v>200</v>
       </c>
       <c r="W396" s="26"/>
-      <c r="X396" s="27"/>
+      <c r="X396" s="14"/>
       <c r="Y396" s="1" t="n">
-        <v>395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27717,9 +27662,9 @@
       </c>
       <c r="V397" s="26"/>
       <c r="W397" s="26"/>
-      <c r="X397" s="27"/>
+      <c r="X397" s="14"/>
       <c r="Y397" s="1" t="n">
-        <v>396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27780,9 +27725,9 @@
       </c>
       <c r="V398" s="26"/>
       <c r="W398" s="26"/>
-      <c r="X398" s="27"/>
+      <c r="X398" s="14"/>
       <c r="Y398" s="1" t="n">
-        <v>397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27843,9 +27788,9 @@
       </c>
       <c r="V399" s="26"/>
       <c r="W399" s="26"/>
-      <c r="X399" s="27"/>
+      <c r="X399" s="14"/>
       <c r="Y399" s="1" t="n">
-        <v>398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27901,9 +27846,9 @@
         <v>1000</v>
       </c>
       <c r="W400" s="26"/>
-      <c r="X400" s="27"/>
+      <c r="X400" s="14"/>
       <c r="Y400" s="1" t="n">
-        <v>399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27964,9 +27909,9 @@
       </c>
       <c r="V401" s="26"/>
       <c r="W401" s="26"/>
-      <c r="X401" s="27"/>
+      <c r="X401" s="14"/>
       <c r="Y401" s="1" t="n">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28027,9 +27972,9 @@
       </c>
       <c r="V402" s="26"/>
       <c r="W402" s="26"/>
-      <c r="X402" s="27"/>
+      <c r="X402" s="14"/>
       <c r="Y402" s="1" t="n">
-        <v>401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28090,9 +28035,9 @@
       </c>
       <c r="V403" s="26"/>
       <c r="W403" s="26"/>
-      <c r="X403" s="27"/>
+      <c r="X403" s="14"/>
       <c r="Y403" s="1" t="n">
-        <v>402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28153,9 +28098,9 @@
       </c>
       <c r="V404" s="26"/>
       <c r="W404" s="26"/>
-      <c r="X404" s="27"/>
+      <c r="X404" s="14"/>
       <c r="Y404" s="1" t="n">
-        <v>403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28213,11 +28158,11 @@
         <v>6000</v>
       </c>
       <c r="W405" s="26"/>
-      <c r="X405" s="27" t="s">
+      <c r="X405" s="14" t="s">
         <v>174</v>
       </c>
       <c r="Y405" s="1" t="n">
-        <v>404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28278,9 +28223,9 @@
       </c>
       <c r="V406" s="26"/>
       <c r="W406" s="26"/>
-      <c r="X406" s="27"/>
+      <c r="X406" s="14"/>
       <c r="Y406" s="1" t="n">
-        <v>405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28341,9 +28286,9 @@
       </c>
       <c r="V407" s="26"/>
       <c r="W407" s="26"/>
-      <c r="X407" s="27"/>
+      <c r="X407" s="14"/>
       <c r="Y407" s="1" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28404,9 +28349,9 @@
       </c>
       <c r="V408" s="26"/>
       <c r="W408" s="26"/>
-      <c r="X408" s="27"/>
+      <c r="X408" s="14"/>
       <c r="Y408" s="1" t="n">
-        <v>407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28467,9 +28412,9 @@
       </c>
       <c r="V409" s="26"/>
       <c r="W409" s="26"/>
-      <c r="X409" s="27"/>
+      <c r="X409" s="14"/>
       <c r="Y409" s="1" t="n">
-        <v>408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28530,9 +28475,9 @@
       </c>
       <c r="V410" s="26"/>
       <c r="W410" s="26"/>
-      <c r="X410" s="27"/>
+      <c r="X410" s="14"/>
       <c r="Y410" s="1" t="n">
-        <v>409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28593,11 +28538,11 @@
       </c>
       <c r="V411" s="26"/>
       <c r="W411" s="26"/>
-      <c r="X411" s="27" t="s">
+      <c r="X411" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Y411" s="1" t="n">
-        <v>410</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28658,9 +28603,9 @@
       </c>
       <c r="V412" s="26"/>
       <c r="W412" s="26"/>
-      <c r="X412" s="27"/>
+      <c r="X412" s="14"/>
       <c r="Y412" s="1" t="n">
-        <v>411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28721,9 +28666,9 @@
       </c>
       <c r="V413" s="26"/>
       <c r="W413" s="26"/>
-      <c r="X413" s="27"/>
+      <c r="X413" s="14"/>
       <c r="Y413" s="1" t="n">
-        <v>412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28784,9 +28729,9 @@
       </c>
       <c r="V414" s="26"/>
       <c r="W414" s="26"/>
-      <c r="X414" s="27"/>
+      <c r="X414" s="14"/>
       <c r="Y414" s="1" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28847,9 +28792,9 @@
       </c>
       <c r="V415" s="26"/>
       <c r="W415" s="26"/>
-      <c r="X415" s="27"/>
+      <c r="X415" s="14"/>
       <c r="Y415" s="1" t="n">
-        <v>414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28910,9 +28855,9 @@
       </c>
       <c r="V416" s="26"/>
       <c r="W416" s="26"/>
-      <c r="X416" s="27"/>
+      <c r="X416" s="14"/>
       <c r="Y416" s="1" t="n">
-        <v>415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28973,9 +28918,9 @@
       </c>
       <c r="V417" s="26"/>
       <c r="W417" s="26"/>
-      <c r="X417" s="27"/>
+      <c r="X417" s="14"/>
       <c r="Y417" s="1" t="n">
-        <v>416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29036,9 +28981,9 @@
       </c>
       <c r="V418" s="26"/>
       <c r="W418" s="26"/>
-      <c r="X418" s="27"/>
+      <c r="X418" s="14"/>
       <c r="Y418" s="1" t="n">
-        <v>417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29099,9 +29044,9 @@
       </c>
       <c r="V419" s="26"/>
       <c r="W419" s="26"/>
-      <c r="X419" s="27"/>
+      <c r="X419" s="14"/>
       <c r="Y419" s="1" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29162,9 +29107,9 @@
       </c>
       <c r="V420" s="26"/>
       <c r="W420" s="26"/>
-      <c r="X420" s="27"/>
+      <c r="X420" s="14"/>
       <c r="Y420" s="1" t="n">
-        <v>419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29225,9 +29170,9 @@
       </c>
       <c r="V421" s="26"/>
       <c r="W421" s="26"/>
-      <c r="X421" s="27"/>
+      <c r="X421" s="14"/>
       <c r="Y421" s="1" t="n">
-        <v>420</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29288,9 +29233,9 @@
       </c>
       <c r="V422" s="26"/>
       <c r="W422" s="26"/>
-      <c r="X422" s="27"/>
+      <c r="X422" s="14"/>
       <c r="Y422" s="1" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29351,9 +29296,9 @@
       </c>
       <c r="V423" s="26"/>
       <c r="W423" s="26"/>
-      <c r="X423" s="27"/>
+      <c r="X423" s="14"/>
       <c r="Y423" s="1" t="n">
-        <v>422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29414,9 +29359,9 @@
       </c>
       <c r="V424" s="26"/>
       <c r="W424" s="26"/>
-      <c r="X424" s="27"/>
+      <c r="X424" s="14"/>
       <c r="Y424" s="1" t="n">
-        <v>423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29477,9 +29422,9 @@
       </c>
       <c r="V425" s="26"/>
       <c r="W425" s="26"/>
-      <c r="X425" s="27"/>
+      <c r="X425" s="14"/>
       <c r="Y425" s="1" t="n">
-        <v>424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29540,9 +29485,9 @@
       </c>
       <c r="V426" s="26"/>
       <c r="W426" s="26"/>
-      <c r="X426" s="27"/>
+      <c r="X426" s="14"/>
       <c r="Y426" s="1" t="n">
-        <v>425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29603,9 +29548,9 @@
       </c>
       <c r="V427" s="26"/>
       <c r="W427" s="26"/>
-      <c r="X427" s="27"/>
+      <c r="X427" s="14"/>
       <c r="Y427" s="1" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29666,9 +29611,9 @@
       </c>
       <c r="V428" s="26"/>
       <c r="W428" s="26"/>
-      <c r="X428" s="27"/>
+      <c r="X428" s="14"/>
       <c r="Y428" s="1" t="n">
-        <v>427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29729,9 +29674,9 @@
       </c>
       <c r="V429" s="26"/>
       <c r="W429" s="26"/>
-      <c r="X429" s="27"/>
+      <c r="X429" s="14"/>
       <c r="Y429" s="1" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29774,7 +29719,7 @@
       <c r="M430" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N430" s="30" t="n">
+      <c r="N430" s="29" t="n">
         <v>50</v>
       </c>
       <c r="O430" s="22"/>
@@ -29792,9 +29737,9 @@
       </c>
       <c r="V430" s="26"/>
       <c r="W430" s="26"/>
-      <c r="X430" s="27"/>
+      <c r="X430" s="14"/>
       <c r="Y430" s="1" t="n">
-        <v>429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29855,11 +29800,11 @@
       </c>
       <c r="V431" s="26"/>
       <c r="W431" s="26"/>
-      <c r="X431" s="27" t="s">
+      <c r="X431" s="14" t="s">
         <v>336</v>
       </c>
       <c r="Y431" s="1" t="n">
-        <v>430</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29920,11 +29865,11 @@
       </c>
       <c r="V432" s="26"/>
       <c r="W432" s="26"/>
-      <c r="X432" s="27" t="s">
+      <c r="X432" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y432" s="1" t="n">
-        <v>431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29985,11 +29930,11 @@
       </c>
       <c r="V433" s="26"/>
       <c r="W433" s="26"/>
-      <c r="X433" s="27" t="s">
+      <c r="X433" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y433" s="1" t="n">
-        <v>432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30050,9 +29995,9 @@
       </c>
       <c r="V434" s="26"/>
       <c r="W434" s="26"/>
-      <c r="X434" s="27"/>
+      <c r="X434" s="14"/>
       <c r="Y434" s="1" t="n">
-        <v>433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30113,9 +30058,9 @@
       </c>
       <c r="V435" s="26"/>
       <c r="W435" s="26"/>
-      <c r="X435" s="27"/>
+      <c r="X435" s="14"/>
       <c r="Y435" s="1" t="n">
-        <v>434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30176,9 +30121,9 @@
       </c>
       <c r="V436" s="26"/>
       <c r="W436" s="26"/>
-      <c r="X436" s="27"/>
+      <c r="X436" s="14"/>
       <c r="Y436" s="1" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30239,9 +30184,9 @@
       </c>
       <c r="V437" s="26"/>
       <c r="W437" s="26"/>
-      <c r="X437" s="27"/>
+      <c r="X437" s="14"/>
       <c r="Y437" s="1" t="n">
-        <v>436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30302,9 +30247,9 @@
       </c>
       <c r="V438" s="26"/>
       <c r="W438" s="26"/>
-      <c r="X438" s="27"/>
+      <c r="X438" s="14"/>
       <c r="Y438" s="1" t="n">
-        <v>437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30365,9 +30310,9 @@
       </c>
       <c r="V439" s="26"/>
       <c r="W439" s="26"/>
-      <c r="X439" s="27"/>
+      <c r="X439" s="14"/>
       <c r="Y439" s="1" t="n">
-        <v>438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30428,9 +30373,9 @@
       </c>
       <c r="V440" s="26"/>
       <c r="W440" s="26"/>
-      <c r="X440" s="27"/>
+      <c r="X440" s="14"/>
       <c r="Y440" s="1" t="n">
-        <v>439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30493,9 +30438,9 @@
       </c>
       <c r="V441" s="26"/>
       <c r="W441" s="26"/>
-      <c r="X441" s="27"/>
+      <c r="X441" s="14"/>
       <c r="Y441" s="1" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30556,9 +30501,9 @@
       </c>
       <c r="V442" s="26"/>
       <c r="W442" s="26"/>
-      <c r="X442" s="27"/>
+      <c r="X442" s="14"/>
       <c r="Y442" s="1" t="n">
-        <v>441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30619,11 +30564,11 @@
       </c>
       <c r="V443" s="26"/>
       <c r="W443" s="26"/>
-      <c r="X443" s="27" t="s">
+      <c r="X443" s="14" t="s">
         <v>342</v>
       </c>
       <c r="Y443" s="1" t="n">
-        <v>442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30684,9 +30629,9 @@
       </c>
       <c r="V444" s="26"/>
       <c r="W444" s="26"/>
-      <c r="X444" s="27"/>
+      <c r="X444" s="14"/>
       <c r="Y444" s="1" t="n">
-        <v>443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30747,9 +30692,9 @@
       </c>
       <c r="V445" s="26"/>
       <c r="W445" s="26"/>
-      <c r="X445" s="27"/>
+      <c r="X445" s="14"/>
       <c r="Y445" s="1" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30810,9 +30755,9 @@
       </c>
       <c r="V446" s="26"/>
       <c r="W446" s="26"/>
-      <c r="X446" s="27"/>
+      <c r="X446" s="14"/>
       <c r="Y446" s="1" t="n">
-        <v>445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30873,9 +30818,9 @@
       </c>
       <c r="V447" s="26"/>
       <c r="W447" s="26"/>
-      <c r="X447" s="27"/>
+      <c r="X447" s="14"/>
       <c r="Y447" s="1" t="n">
-        <v>446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30936,9 +30881,9 @@
       </c>
       <c r="V448" s="26"/>
       <c r="W448" s="26"/>
-      <c r="X448" s="27"/>
+      <c r="X448" s="14"/>
       <c r="Y448" s="1" t="n">
-        <v>447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30999,9 +30944,9 @@
       </c>
       <c r="V449" s="26"/>
       <c r="W449" s="26"/>
-      <c r="X449" s="27"/>
+      <c r="X449" s="14"/>
       <c r="Y449" s="1" t="n">
-        <v>448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31062,9 +31007,9 @@
       </c>
       <c r="V450" s="26"/>
       <c r="W450" s="26"/>
-      <c r="X450" s="27"/>
+      <c r="X450" s="14"/>
       <c r="Y450" s="1" t="n">
-        <v>449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31125,11 +31070,11 @@
       </c>
       <c r="V451" s="26"/>
       <c r="W451" s="26"/>
-      <c r="X451" s="27" t="s">
+      <c r="X451" s="14" t="s">
         <v>347</v>
       </c>
       <c r="Y451" s="1" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31190,9 +31135,9 @@
       </c>
       <c r="V452" s="26"/>
       <c r="W452" s="26"/>
-      <c r="X452" s="27"/>
+      <c r="X452" s="14"/>
       <c r="Y452" s="1" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31253,9 +31198,9 @@
       </c>
       <c r="V453" s="26"/>
       <c r="W453" s="26"/>
-      <c r="X453" s="27"/>
+      <c r="X453" s="14"/>
       <c r="Y453" s="1" t="n">
-        <v>452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31316,9 +31261,9 @@
       </c>
       <c r="V454" s="26"/>
       <c r="W454" s="26"/>
-      <c r="X454" s="27"/>
+      <c r="X454" s="14"/>
       <c r="Y454" s="1" t="n">
-        <v>453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31379,9 +31324,9 @@
       </c>
       <c r="V455" s="26"/>
       <c r="W455" s="26"/>
-      <c r="X455" s="27"/>
+      <c r="X455" s="14"/>
       <c r="Y455" s="1" t="n">
-        <v>454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31442,9 +31387,9 @@
       </c>
       <c r="V456" s="26"/>
       <c r="W456" s="26"/>
-      <c r="X456" s="27"/>
+      <c r="X456" s="14"/>
       <c r="Y456" s="1" t="n">
-        <v>455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31505,9 +31450,9 @@
       </c>
       <c r="V457" s="26"/>
       <c r="W457" s="26"/>
-      <c r="X457" s="27"/>
+      <c r="X457" s="14"/>
       <c r="Y457" s="1" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31568,9 +31513,9 @@
       </c>
       <c r="V458" s="26"/>
       <c r="W458" s="26"/>
-      <c r="X458" s="27"/>
+      <c r="X458" s="14"/>
       <c r="Y458" s="1" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31631,9 +31576,9 @@
       </c>
       <c r="V459" s="26"/>
       <c r="W459" s="26"/>
-      <c r="X459" s="27"/>
+      <c r="X459" s="14"/>
       <c r="Y459" s="1" t="n">
-        <v>458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31694,9 +31639,9 @@
       </c>
       <c r="V460" s="26"/>
       <c r="W460" s="26"/>
-      <c r="X460" s="27"/>
+      <c r="X460" s="14"/>
       <c r="Y460" s="1" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31757,9 +31702,9 @@
       </c>
       <c r="V461" s="26"/>
       <c r="W461" s="26"/>
-      <c r="X461" s="27"/>
+      <c r="X461" s="14"/>
       <c r="Y461" s="1" t="n">
-        <v>460</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31820,11 +31765,11 @@
       </c>
       <c r="V462" s="26"/>
       <c r="W462" s="26"/>
-      <c r="X462" s="27" t="s">
+      <c r="X462" s="14" t="s">
         <v>355</v>
       </c>
       <c r="Y462" s="1" t="n">
-        <v>461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31885,9 +31830,9 @@
       </c>
       <c r="V463" s="26"/>
       <c r="W463" s="26"/>
-      <c r="X463" s="27"/>
+      <c r="X463" s="14"/>
       <c r="Y463" s="1" t="n">
-        <v>462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31948,9 +31893,9 @@
       </c>
       <c r="V464" s="26"/>
       <c r="W464" s="26"/>
-      <c r="X464" s="27"/>
+      <c r="X464" s="14"/>
       <c r="Y464" s="1" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32011,9 +31956,9 @@
       </c>
       <c r="V465" s="26"/>
       <c r="W465" s="26"/>
-      <c r="X465" s="27"/>
+      <c r="X465" s="14"/>
       <c r="Y465" s="1" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32074,11 +32019,11 @@
       </c>
       <c r="V466" s="26"/>
       <c r="W466" s="26"/>
-      <c r="X466" s="27" t="s">
+      <c r="X466" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y466" s="1" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32139,9 +32084,9 @@
       </c>
       <c r="V467" s="26"/>
       <c r="W467" s="26"/>
-      <c r="X467" s="27"/>
+      <c r="X467" s="14"/>
       <c r="Y467" s="1" t="n">
-        <v>466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32202,9 +32147,9 @@
       </c>
       <c r="V468" s="26"/>
       <c r="W468" s="26"/>
-      <c r="X468" s="27"/>
+      <c r="X468" s="14"/>
       <c r="Y468" s="1" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32265,9 +32210,9 @@
       </c>
       <c r="V469" s="26"/>
       <c r="W469" s="26"/>
-      <c r="X469" s="27"/>
+      <c r="X469" s="14"/>
       <c r="Y469" s="1" t="n">
-        <v>468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32328,9 +32273,9 @@
       </c>
       <c r="V470" s="26"/>
       <c r="W470" s="26"/>
-      <c r="X470" s="27"/>
+      <c r="X470" s="14"/>
       <c r="Y470" s="1" t="n">
-        <v>469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32391,9 +32336,9 @@
       </c>
       <c r="V471" s="26"/>
       <c r="W471" s="26"/>
-      <c r="X471" s="27"/>
+      <c r="X471" s="14"/>
       <c r="Y471" s="1" t="n">
-        <v>470</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32454,11 +32399,11 @@
       </c>
       <c r="V472" s="26"/>
       <c r="W472" s="26"/>
-      <c r="X472" s="27" t="s">
+      <c r="X472" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Y472" s="1" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32519,9 +32464,9 @@
       </c>
       <c r="V473" s="26"/>
       <c r="W473" s="26"/>
-      <c r="X473" s="27"/>
+      <c r="X473" s="14"/>
       <c r="Y473" s="1" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32582,9 +32527,9 @@
       </c>
       <c r="V474" s="26"/>
       <c r="W474" s="26"/>
-      <c r="X474" s="27"/>
+      <c r="X474" s="14"/>
       <c r="Y474" s="1" t="n">
-        <v>473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32645,9 +32590,9 @@
       </c>
       <c r="V475" s="26"/>
       <c r="W475" s="26"/>
-      <c r="X475" s="27"/>
+      <c r="X475" s="14"/>
       <c r="Y475" s="1" t="n">
-        <v>474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32708,9 +32653,9 @@
       </c>
       <c r="V476" s="26"/>
       <c r="W476" s="26"/>
-      <c r="X476" s="27"/>
+      <c r="X476" s="14"/>
       <c r="Y476" s="1" t="n">
-        <v>475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32771,9 +32716,9 @@
       </c>
       <c r="V477" s="26"/>
       <c r="W477" s="26"/>
-      <c r="X477" s="27"/>
+      <c r="X477" s="14"/>
       <c r="Y477" s="1" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32834,9 +32779,9 @@
       </c>
       <c r="V478" s="26"/>
       <c r="W478" s="26"/>
-      <c r="X478" s="27"/>
+      <c r="X478" s="14"/>
       <c r="Y478" s="1" t="n">
-        <v>477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32897,9 +32842,9 @@
       </c>
       <c r="V479" s="26"/>
       <c r="W479" s="26"/>
-      <c r="X479" s="27"/>
+      <c r="X479" s="14"/>
       <c r="Y479" s="1" t="n">
-        <v>478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32960,9 +32905,9 @@
       </c>
       <c r="V480" s="26"/>
       <c r="W480" s="26"/>
-      <c r="X480" s="27"/>
+      <c r="X480" s="14"/>
       <c r="Y480" s="1" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33023,11 +32968,11 @@
       </c>
       <c r="V481" s="26"/>
       <c r="W481" s="26"/>
-      <c r="X481" s="27" t="s">
+      <c r="X481" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y481" s="1" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33088,9 +33033,9 @@
       </c>
       <c r="V482" s="26"/>
       <c r="W482" s="26"/>
-      <c r="X482" s="27"/>
+      <c r="X482" s="14"/>
       <c r="Y482" s="1" t="n">
-        <v>481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33151,9 +33096,9 @@
       </c>
       <c r="V483" s="26"/>
       <c r="W483" s="26"/>
-      <c r="X483" s="27"/>
+      <c r="X483" s="14"/>
       <c r="Y483" s="1" t="n">
-        <v>482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33214,9 +33159,9 @@
       </c>
       <c r="V484" s="26"/>
       <c r="W484" s="26"/>
-      <c r="X484" s="27"/>
+      <c r="X484" s="14"/>
       <c r="Y484" s="1" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33277,9 +33222,9 @@
       </c>
       <c r="V485" s="26"/>
       <c r="W485" s="26"/>
-      <c r="X485" s="27"/>
+      <c r="X485" s="14"/>
       <c r="Y485" s="1" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33340,9 +33285,9 @@
       </c>
       <c r="V486" s="26"/>
       <c r="W486" s="26"/>
-      <c r="X486" s="27"/>
+      <c r="X486" s="14"/>
       <c r="Y486" s="1" t="n">
-        <v>485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33403,9 +33348,9 @@
       </c>
       <c r="V487" s="26"/>
       <c r="W487" s="26"/>
-      <c r="X487" s="27"/>
+      <c r="X487" s="14"/>
       <c r="Y487" s="1" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33466,9 +33411,9 @@
       </c>
       <c r="V488" s="26"/>
       <c r="W488" s="26"/>
-      <c r="X488" s="27"/>
+      <c r="X488" s="14"/>
       <c r="Y488" s="1" t="n">
-        <v>487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33529,9 +33474,9 @@
       </c>
       <c r="V489" s="26"/>
       <c r="W489" s="26"/>
-      <c r="X489" s="27"/>
+      <c r="X489" s="14"/>
       <c r="Y489" s="1" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33592,9 +33537,9 @@
       </c>
       <c r="V490" s="26"/>
       <c r="W490" s="26"/>
-      <c r="X490" s="27"/>
+      <c r="X490" s="14"/>
       <c r="Y490" s="1" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33648,9 +33593,9 @@
         <v>1561</v>
       </c>
       <c r="W491" s="26"/>
-      <c r="X491" s="27"/>
+      <c r="X491" s="14"/>
       <c r="Y491" s="1" t="n">
-        <v>490</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33709,9 +33654,9 @@
       </c>
       <c r="V492" s="26"/>
       <c r="W492" s="26"/>
-      <c r="X492" s="27"/>
+      <c r="X492" s="14"/>
       <c r="Y492" s="1" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33770,9 +33715,9 @@
       </c>
       <c r="V493" s="26"/>
       <c r="W493" s="26"/>
-      <c r="X493" s="27"/>
+      <c r="X493" s="14"/>
       <c r="Y493" s="1" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33831,9 +33776,9 @@
       </c>
       <c r="V494" s="26"/>
       <c r="W494" s="26"/>
-      <c r="X494" s="27"/>
+      <c r="X494" s="14"/>
       <c r="Y494" s="1" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33892,9 +33837,9 @@
       </c>
       <c r="V495" s="26"/>
       <c r="W495" s="26"/>
-      <c r="X495" s="27"/>
+      <c r="X495" s="14"/>
       <c r="Y495" s="1" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33953,9 +33898,9 @@
       </c>
       <c r="V496" s="26"/>
       <c r="W496" s="26"/>
-      <c r="X496" s="27"/>
+      <c r="X496" s="14"/>
       <c r="Y496" s="1" t="n">
-        <v>495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34014,9 +33959,9 @@
       </c>
       <c r="V497" s="26"/>
       <c r="W497" s="26"/>
-      <c r="X497" s="27"/>
+      <c r="X497" s="14"/>
       <c r="Y497" s="1" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34077,9 +34022,9 @@
       </c>
       <c r="V498" s="26"/>
       <c r="W498" s="26"/>
-      <c r="X498" s="27"/>
+      <c r="X498" s="14"/>
       <c r="Y498" s="1" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34138,11 +34083,11 @@
       </c>
       <c r="V499" s="26"/>
       <c r="W499" s="26"/>
-      <c r="X499" s="27" t="s">
+      <c r="X499" s="14" t="s">
         <v>367</v>
       </c>
       <c r="Y499" s="1" t="n">
-        <v>498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34201,9 +34146,9 @@
       </c>
       <c r="V500" s="26"/>
       <c r="W500" s="26"/>
-      <c r="X500" s="27"/>
+      <c r="X500" s="14"/>
       <c r="Y500" s="1" t="n">
-        <v>499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34262,9 +34207,9 @@
       </c>
       <c r="V501" s="26"/>
       <c r="W501" s="26"/>
-      <c r="X501" s="27"/>
+      <c r="X501" s="14"/>
       <c r="Y501" s="1" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34323,9 +34268,9 @@
       </c>
       <c r="V502" s="26"/>
       <c r="W502" s="26"/>
-      <c r="X502" s="27"/>
+      <c r="X502" s="14"/>
       <c r="Y502" s="1" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34384,9 +34329,9 @@
       </c>
       <c r="V503" s="26"/>
       <c r="W503" s="26"/>
-      <c r="X503" s="27"/>
+      <c r="X503" s="14"/>
       <c r="Y503" s="1" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34445,9 +34390,9 @@
       </c>
       <c r="V504" s="26"/>
       <c r="W504" s="26"/>
-      <c r="X504" s="27"/>
+      <c r="X504" s="14"/>
       <c r="Y504" s="1" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34506,9 +34451,9 @@
       </c>
       <c r="V505" s="26"/>
       <c r="W505" s="26"/>
-      <c r="X505" s="27"/>
+      <c r="X505" s="14"/>
       <c r="Y505" s="1" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34567,9 +34512,9 @@
       </c>
       <c r="V506" s="26"/>
       <c r="W506" s="26"/>
-      <c r="X506" s="27"/>
+      <c r="X506" s="14"/>
       <c r="Y506" s="1" t="n">
-        <v>505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34628,9 +34573,9 @@
       </c>
       <c r="V507" s="26"/>
       <c r="W507" s="26"/>
-      <c r="X507" s="27"/>
+      <c r="X507" s="14"/>
       <c r="Y507" s="1" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34689,9 +34634,9 @@
       </c>
       <c r="V508" s="26"/>
       <c r="W508" s="26"/>
-      <c r="X508" s="27"/>
+      <c r="X508" s="14"/>
       <c r="Y508" s="1" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34750,11 +34695,11 @@
       </c>
       <c r="V509" s="26"/>
       <c r="W509" s="26"/>
-      <c r="X509" s="27" t="s">
+      <c r="X509" s="14" t="s">
         <v>371</v>
       </c>
       <c r="Y509" s="1" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -34767,31 +34712,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1150:W1509">
-    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1149">
-    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="cellIs" priority="8" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="8" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="9" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
